--- a/Data/One_month_LWR_data/Fish_data_LW_before&after.xlsx
+++ b/Data/One_month_LWR_data/Fish_data_LW_before&after.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Data\One_month_LWR_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\One_month_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D89786-B7E8-484A-B748-CEA5755CE69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE633A7-AA69-45B7-AC64-871E67B767AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="674" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="674" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerres oyena" sheetId="1" r:id="rId1"/>
@@ -319,6 +319,61 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Length-weight relationship of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gerres oyena</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>. Historical collections were collected in ~1908 (orange), contemporary collections were measured fresh (blue) and after 1 month of preservation in EtOH (red)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -404,6 +459,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19786742788286243"/>
+                  <c:y val="0.10422872911437654"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -883,8 +944,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.3982056590752202E-2"/>
-                  <c:y val="0.28723887375113499"/>
+                  <c:x val="1.0776352341442211E-2"/>
+                  <c:y val="0.24582690775613941"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1342,6 +1403,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.64428900935443645"/>
+                  <c:y val="0.36525273089301263"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Gerres oyena'!$S$2:$S$29</c:f>
@@ -1550,6 +1661,7 @@
         <c:axId val="164486548"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1567,6 +1679,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1629,6 +1796,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1761,6 +1983,61 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Length-weight relationship of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Siganus fuscescens</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>. Historical collections were collected in ~1908 (orange), contemporary collections were measured fresh (blue) and after 1 month of preservation in EtOH (red)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1846,6 +2123,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8455756581735083E-2"/>
+                  <c:y val="1.9682839525765931E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2355,8 +2638,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="7.0916114790287005E-2"/>
-                  <c:y val="0.29160997732426303"/>
+                  <c:x val="5.2441665890790183E-2"/>
+                  <c:y val="6.9463009495068673E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2844,6 +3127,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38431971807473353"/>
+                  <c:y val="0.17950633875548047"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Siganus fuscescens'!$T$2:$T$6</c:f>
@@ -2914,6 +3247,7 @@
         <c:axId val="419910221"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2931,6 +3265,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2993,6 +3382,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3125,6 +3569,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Length-weight</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> relationship of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>Spratelloides delicatulus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>. Historical collections were collected in ~1908 (orange), contemporary collections were measured fresh (blue) and after 1 month of preservation in EtOH (red) </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3156,7 +3638,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1936194115336013E-2"/>
+          <c:y val="0.12323200440775531"/>
+          <c:w val="0.90760772556513769"/>
+          <c:h val="0.69055297513257929"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3212,8 +3704,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-9.0277777777777804E-2"/>
+                  <c:x val="4.002819132932596E-2"/>
+                  <c:y val="-4.2845678933171538E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4163,8 +4655,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.2552126772310304E-3"/>
-                  <c:y val="0.28819444444444398"/>
+                  <c:x val="6.4858919142225552E-2"/>
+                  <c:y val="6.6769536596432935E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5057,6 +5549,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5427701523380678"/>
+                  <c:y val="0.35732057850301019"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Spratelloides delicatulus'!$T$2:$T$97</c:f>
@@ -5673,6 +6215,7 @@
         <c:axId val="626288410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5690,6 +6233,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5752,6 +6350,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5884,6 +6537,61 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Length-weight relationship of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Spratelloides gracilis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>. Historical collections were collected in ~1908 (orange), contemporary collections were measured fresh (blue) and after 1 month of preservation in EtOH (red)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6556,8 +7264,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.7233809001097697E-2"/>
-                  <c:y val="0.27315227070347298"/>
+                  <c:x val="-4.052972218687622E-3"/>
+                  <c:y val="0.10563240828310969"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -7123,6 +7831,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21798205023678296"/>
+                  <c:y val="0.21545428877384903"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Spratelloides gracilis'!$U$2:$U$40</c:f>
@@ -7397,6 +8155,8 @@
         <c:axId val="292254534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7414,6 +8174,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>standard length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7459,6 +8274,7 @@
         <c:axId val="968160522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7476,6 +8292,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9821,16 +10692,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>638811</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
+      <xdr:rowOff>56060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>176168</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2721</xdr:rowOff>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9862,16 +10733,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>61653</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50857</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>800445</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>77874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>446463</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>201526</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>796635</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9904,15 +10775,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>114752</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85815</xdr:rowOff>
+      <xdr:colOff>446859</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>497386</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28665</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>334709</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9944,16 +10815,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>349885</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>39659</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>305462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>749936</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190327</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>668021</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10184,11 +11055,11 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
@@ -10268,12 +11139,12 @@
         <v>8.4304000000000006</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P63" si="0">M2-N2</f>
-        <v>3.1358999999999995</v>
+        <f>N2-M2</f>
+        <v>-3.1358999999999995</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q63" si="1">P2/M2*100</f>
-        <v>27.11238684799806</v>
+        <f>P2/M2*100</f>
+        <v>-27.11238684799806</v>
       </c>
       <c r="S2" s="18">
         <v>58.9</v>
@@ -10321,12 +11192,12 @@
         <v>11.544</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
-        <v>2.8817000000000004</v>
+        <f t="shared" ref="P3:P63" si="0">N3-M3</f>
+        <v>-2.8817000000000004</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>19.976153670185852</v>
+        <f t="shared" ref="Q2:Q63" si="1">P3/M3*100</f>
+        <v>-19.976153670185852</v>
       </c>
       <c r="S3" s="18">
         <v>60.5</v>
@@ -10375,11 +11246,11 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>3.282</v>
+        <v>-3.282</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>15.876317584400383</v>
+        <v>-15.876317584400383</v>
       </c>
       <c r="S4" s="18">
         <v>61.5</v>
@@ -10428,11 +11299,11 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
-        <v>2.6172000000000004</v>
+        <v>-2.6172000000000004</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>21.834746045518258</v>
+        <v>-21.834746045518258</v>
       </c>
       <c r="S5" s="18">
         <v>61.6</v>
@@ -10481,11 +11352,11 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>3.0235000000000003</v>
+        <v>-3.0235000000000003</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>18.593681776531437</v>
+        <v>-18.593681776531437</v>
       </c>
       <c r="S6" s="18">
         <v>61.7</v>
@@ -10534,11 +11405,11 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>2.7774000000000001</v>
+        <v>-2.7774000000000001</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>21.514221974344675</v>
+        <v>-21.514221974344675</v>
       </c>
       <c r="S7" s="18">
         <v>62.8</v>
@@ -10587,11 +11458,11 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
-        <v>2.780800000000001</v>
+        <v>-2.780800000000001</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>16.769890424011439</v>
+        <v>-16.769890424011439</v>
       </c>
       <c r="S8" s="18">
         <v>65.5</v>
@@ -10640,11 +11511,11 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
-        <v>3.1035999999999984</v>
+        <v>-3.1035999999999984</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>17.002766592708241</v>
+        <v>-17.002766592708241</v>
       </c>
       <c r="S9" s="18">
         <v>66.5</v>
@@ -10693,11 +11564,11 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
-        <v>2.9270000000000014</v>
+        <v>-2.9270000000000014</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>17.122666619867449</v>
+        <v>-17.122666619867449</v>
       </c>
       <c r="S10" s="18">
         <v>66.7</v>
@@ -10746,11 +11617,11 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>3.4663999999999984</v>
+        <v>-3.4663999999999984</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>20.587379361544166</v>
+        <v>-20.587379361544166</v>
       </c>
       <c r="S11" s="18">
         <v>68.5</v>
@@ -10799,11 +11670,11 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
-        <v>3.0040000000000013</v>
+        <v>-3.0040000000000013</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>17.352225925519445</v>
+        <v>-17.352225925519445</v>
       </c>
       <c r="S12" s="18">
         <v>69.8</v>
@@ -10852,11 +11723,11 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>3.1915999999999993</v>
+        <v>-3.1915999999999993</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>19.010971992232637</v>
+        <v>-19.010971992232637</v>
       </c>
       <c r="S13" s="18">
         <v>70.099999999999994</v>
@@ -10905,11 +11776,11 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>3.1403999999999979</v>
+        <v>-3.1403999999999979</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>17.814132635985626</v>
+        <v>-17.814132635985626</v>
       </c>
       <c r="S14" s="18">
         <v>72.5</v>
@@ -10958,11 +11829,11 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>2.7038000000000011</v>
+        <v>-2.7038000000000011</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>17.688659186811037</v>
+        <v>-17.688659186811037</v>
       </c>
       <c r="S15" s="18">
         <v>72.900000000000006</v>
@@ -11011,11 +11882,11 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>3.2554999999999996</v>
+        <v>-3.2554999999999996</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>17.778833603661166</v>
+        <v>-17.778833603661166</v>
       </c>
       <c r="S16" s="18">
         <v>75.900000000000006</v>
@@ -11064,11 +11935,11 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>2.9998999999999985</v>
+        <v>-2.9998999999999985</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>18.732515735837737</v>
+        <v>-18.732515735837737</v>
       </c>
       <c r="S17" s="18">
         <v>76.599999999999994</v>
@@ -11117,11 +11988,11 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>2.8846999999999987</v>
+        <v>-2.8846999999999987</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>22.823618770323829</v>
+        <v>-22.823618770323829</v>
       </c>
       <c r="S18" s="18">
         <v>77.2</v>
@@ -11170,11 +12041,11 @@
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>3.0860000000000003</v>
+        <v>-3.0860000000000003</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>20.23235078149586</v>
+        <v>-20.23235078149586</v>
       </c>
       <c r="S19" s="18">
         <v>77.5</v>
@@ -11223,11 +12094,11 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>4.1453999999999986</v>
+        <v>-4.1453999999999986</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>28.219196732471058</v>
+        <v>-28.219196732471058</v>
       </c>
       <c r="S20" s="18">
         <v>77.8</v>
@@ -11276,11 +12147,11 @@
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>4.7932999999999986</v>
+        <v>-4.7932999999999986</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>23.791985784272356</v>
+        <v>-23.791985784272356</v>
       </c>
       <c r="S21" s="18">
         <v>78</v>
@@ -11329,11 +12200,11 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>3.9355000000000011</v>
+        <v>-3.9355000000000011</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>22.669016802317884</v>
+        <v>-22.669016802317884</v>
       </c>
       <c r="S22" s="18">
         <v>78</v>
@@ -11382,11 +12253,11 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>5.3393999999999995</v>
+        <v>-5.3393999999999995</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>26.665934186672523</v>
+        <v>-26.665934186672523</v>
       </c>
       <c r="S23" s="18">
         <v>78.8</v>
@@ -11435,11 +12306,11 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>4.5365000000000002</v>
+        <v>-4.5365000000000002</v>
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
-        <v>22.847688789951352</v>
+        <v>-22.847688789951352</v>
       </c>
       <c r="S24" s="18">
         <v>79.599999999999994</v>
@@ -11488,11 +12359,11 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>4.8574000000000019</v>
+        <v>-4.8574000000000019</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>26.659275643101381</v>
+        <v>-26.659275643101381</v>
       </c>
       <c r="S25" s="18">
         <v>86.6</v>
@@ -11541,11 +12412,11 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>5.3408999999999995</v>
+        <v>-5.3408999999999995</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>26.14819710655798</v>
+        <v>-26.14819710655798</v>
       </c>
       <c r="S26" s="18">
         <v>91.5</v>
@@ -11594,11 +12465,11 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>3.6435999999999993</v>
+        <v>-3.6435999999999993</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>17.032854017464796</v>
+        <v>-17.032854017464796</v>
       </c>
       <c r="S27" s="18">
         <v>92.4</v>
@@ -11647,11 +12518,11 @@
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>1.7921999999999993</v>
+        <v>-1.7921999999999993</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>14.915857982256101</v>
+        <v>-14.915857982256101</v>
       </c>
       <c r="S28" s="18">
         <v>92.7</v>
@@ -11700,11 +12571,11 @@
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>4.7951000000000015</v>
+        <v>-4.7951000000000015</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>25.037202575201423</v>
+        <v>-25.037202575201423</v>
       </c>
       <c r="S29" s="18">
         <v>94.8</v>
@@ -11753,11 +12624,11 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>4.8665000000000003</v>
+        <v>-4.8665000000000003</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>23.391686374036261</v>
+        <v>-23.391686374036261</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
@@ -11800,11 +12671,11 @@
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>4.589599999999999</v>
+        <v>-4.589599999999999</v>
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>22.5221069574349</v>
+        <v>-22.5221069574349</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
@@ -11847,11 +12718,11 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>4.5395000000000003</v>
+        <v>-4.5395000000000003</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>29.911770326100566</v>
+        <v>-29.911770326100566</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15.75" customHeight="1">
@@ -11894,11 +12765,11 @@
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>4.2016999999999989</v>
+        <v>-4.2016999999999989</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>21.486466446093342</v>
+        <v>-21.486466446093342</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" customHeight="1">
@@ -11941,11 +12812,11 @@
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
-        <v>4.3322000000000003</v>
+        <v>-4.3322000000000003</v>
       </c>
       <c r="Q34">
         <f t="shared" si="1"/>
-        <v>21.698755835153168</v>
+        <v>-21.698755835153168</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" customHeight="1">
@@ -11988,11 +12859,11 @@
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
-        <v>4.5167999999999999</v>
+        <v>-4.5167999999999999</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
-        <v>29.831189073521251</v>
+        <v>-29.831189073521251</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
@@ -12035,11 +12906,11 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
-        <v>4.6492000000000022</v>
+        <v>-4.6492000000000022</v>
       </c>
       <c r="Q36">
         <f t="shared" si="1"/>
-        <v>25.047139824801484</v>
+        <v>-25.047139824801484</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" customHeight="1">
@@ -12082,11 +12953,11 @@
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>3.2926000000000002</v>
+        <v>-3.2926000000000002</v>
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
-        <v>24.437418358864747</v>
+        <v>-24.437418358864747</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15.75" customHeight="1">
@@ -12129,11 +13000,11 @@
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
-        <v>0.58269999999999911</v>
+        <v>-0.58269999999999911</v>
       </c>
       <c r="Q38">
         <f t="shared" si="1"/>
-        <v>3.1421207022992919</v>
+        <v>-3.1421207022992919</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15.75" customHeight="1">
@@ -12176,11 +13047,11 @@
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>4.2249999999999996</v>
+        <v>-4.2249999999999996</v>
       </c>
       <c r="Q39">
         <f t="shared" si="1"/>
-        <v>27.083506945557339</v>
+        <v>-27.083506945557339</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15.75" customHeight="1">
@@ -12223,11 +13094,11 @@
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>4.1144999999999996</v>
+        <v>-4.1144999999999996</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
-        <v>23.721533583165176</v>
+        <v>-23.721533583165176</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15.75" customHeight="1">
@@ -12270,11 +13141,11 @@
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>3.6236999999999977</v>
+        <v>-3.6236999999999977</v>
       </c>
       <c r="Q41">
         <f t="shared" si="1"/>
-        <v>20.022322538580962</v>
+        <v>-20.022322538580962</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15.75" customHeight="1">
@@ -12317,11 +13188,11 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>3.2985000000000007</v>
+        <v>-3.2985000000000007</v>
       </c>
       <c r="Q42">
         <f t="shared" si="1"/>
-        <v>25.955886403160193</v>
+        <v>-25.955886403160193</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15.75" customHeight="1">
@@ -12364,11 +13235,11 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>3.7220999999999993</v>
+        <v>-3.7220999999999993</v>
       </c>
       <c r="Q43">
         <f t="shared" si="1"/>
-        <v>25.105897906324191</v>
+        <v>-25.105897906324191</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15.75" customHeight="1">
@@ -12411,11 +13282,11 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>3.5996000000000006</v>
+        <v>-3.5996000000000006</v>
       </c>
       <c r="Q44">
         <f t="shared" si="1"/>
-        <v>23.838884216242707</v>
+        <v>-23.838884216242707</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" customHeight="1">
@@ -12458,11 +13329,11 @@
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>3.2955000000000005</v>
+        <v>-3.2955000000000005</v>
       </c>
       <c r="Q45">
         <f t="shared" si="1"/>
-        <v>29.008406320144363</v>
+        <v>-29.008406320144363</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" customHeight="1">
@@ -12505,11 +13376,11 @@
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>3.4857999999999993</v>
+        <v>-3.4857999999999993</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
-        <v>23.307345645167757</v>
+        <v>-23.307345645167757</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15.75" customHeight="1">
@@ -12552,11 +13423,11 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>4.2334999999999994</v>
+        <v>-4.2334999999999994</v>
       </c>
       <c r="Q47">
         <f t="shared" si="1"/>
-        <v>22.140925802925622</v>
+        <v>-22.140925802925622</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15.75" customHeight="1">
@@ -12599,11 +13470,11 @@
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>4.6306000000000012</v>
+        <v>-4.6306000000000012</v>
       </c>
       <c r="Q48">
         <f t="shared" si="1"/>
-        <v>22.105001861735143</v>
+        <v>-22.105001861735143</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" customHeight="1">
@@ -12646,11 +13517,11 @@
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>3.7848999999999986</v>
+        <v>-3.7848999999999986</v>
       </c>
       <c r="Q49">
         <f t="shared" si="1"/>
-        <v>21.775075078530413</v>
+        <v>-21.775075078530413</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15.75" customHeight="1">
@@ -12693,11 +13564,11 @@
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>3.8313999999999986</v>
+        <v>-3.8313999999999986</v>
       </c>
       <c r="Q50">
         <f t="shared" si="1"/>
-        <v>25.221678768209909</v>
+        <v>-25.221678768209909</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15.75" customHeight="1">
@@ -12740,11 +13611,11 @@
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>4.8600999999999992</v>
+        <v>-4.8600999999999992</v>
       </c>
       <c r="Q51">
         <f t="shared" si="1"/>
-        <v>31.590886931651983</v>
+        <v>-31.590886931651983</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" customHeight="1">
@@ -12787,11 +13658,11 @@
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>3.8358000000000008</v>
+        <v>-3.8358000000000008</v>
       </c>
       <c r="Q52">
         <f t="shared" si="1"/>
-        <v>29.377345485180367</v>
+        <v>-29.377345485180367</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15.75" customHeight="1">
@@ -12834,11 +13705,11 @@
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>3.9613999999999994</v>
+        <v>-3.9613999999999994</v>
       </c>
       <c r="Q53">
         <f t="shared" si="1"/>
-        <v>27.22836247663037</v>
+        <v>-27.22836247663037</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" customHeight="1">
@@ -12881,11 +13752,11 @@
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>3.527099999999999</v>
+        <v>-3.527099999999999</v>
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
-        <v>19.689729476257991</v>
+        <v>-19.689729476257991</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" customHeight="1">
@@ -12928,11 +13799,11 @@
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>3.6018000000000008</v>
+        <v>-3.6018000000000008</v>
       </c>
       <c r="Q55">
         <f t="shared" si="1"/>
-        <v>30.019002533671163</v>
+        <v>-30.019002533671163</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15.75" customHeight="1">
@@ -12975,11 +13846,11 @@
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>3.7967999999999993</v>
+        <v>-3.7967999999999993</v>
       </c>
       <c r="Q56">
         <f t="shared" si="1"/>
-        <v>28.837696812267865</v>
+        <v>-28.837696812267865</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15.75" customHeight="1">
@@ -13022,11 +13893,11 @@
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>3.6585999999999999</v>
+        <v>-3.6585999999999999</v>
       </c>
       <c r="Q57">
         <f t="shared" si="1"/>
-        <v>25.674205795047051</v>
+        <v>-25.674205795047051</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15.75" customHeight="1">
@@ -13069,11 +13940,11 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>2.6085999999999996</v>
+        <v>-2.6085999999999996</v>
       </c>
       <c r="Q58">
         <f t="shared" si="1"/>
-        <v>50.122972869110747</v>
+        <v>-50.122972869110747</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15.75" customHeight="1">
@@ -13116,11 +13987,11 @@
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>4.7486000000000015</v>
+        <v>-4.7486000000000015</v>
       </c>
       <c r="Q59">
         <f t="shared" si="1"/>
-        <v>22.907119219674101</v>
+        <v>-22.907119219674101</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15.75" customHeight="1">
@@ -13163,11 +14034,11 @@
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>3.7535999999999987</v>
+        <v>-3.7535999999999987</v>
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
-        <v>22.315892106561709</v>
+        <v>-22.315892106561709</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15.75" customHeight="1">
@@ -13210,11 +14081,11 @@
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>2.6798000000000002</v>
+        <v>-2.6798000000000002</v>
       </c>
       <c r="Q61">
         <f t="shared" si="1"/>
-        <v>50.644441924632424</v>
+        <v>-50.644441924632424</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" customHeight="1">
@@ -13257,11 +14128,11 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>2.7931000000000004</v>
+        <v>-2.7931000000000004</v>
       </c>
       <c r="Q62">
         <f t="shared" si="1"/>
-        <v>51.078031563740112</v>
+        <v>-51.078031563740112</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15.75" customHeight="1">
@@ -13304,11 +14175,11 @@
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>2.7162999999999999</v>
+        <v>-2.7162999999999999</v>
       </c>
       <c r="Q63">
         <f t="shared" si="1"/>
-        <v>43.056414158225941</v>
+        <v>-43.056414158225941</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15.75" customHeight="1">
@@ -13355,11 +14226,11 @@
   </sheetPr>
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
@@ -13437,12 +14308,12 @@
         <v>7.4104999999999999</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q65" si="0">N2-O2</f>
-        <v>1.7731000000000003</v>
+        <f>O2-N2</f>
+        <v>-1.7731000000000003</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R65" si="1">Q2/N2*100</f>
-        <v>19.307243346835669</v>
+        <f>Q2/N2*100</f>
+        <v>-19.307243346835669</v>
       </c>
       <c r="T2" s="18">
         <v>64.3</v>
@@ -13489,12 +14360,12 @@
         <v>11.1257</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>-3.5998000000000001</v>
+        <f t="shared" ref="Q3:Q66" si="0">O3-N3</f>
+        <v>3.5998000000000001</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
-        <v>-47.832152965093876</v>
+        <f t="shared" ref="R2:R65" si="1">Q3/N3*100</f>
+        <v>47.832152965093876</v>
       </c>
       <c r="T3" s="18">
         <v>69.5</v>
@@ -13542,11 +14413,11 @@
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>7.101399999999999</v>
+        <v>-7.101399999999999</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>52.921669014136988</v>
+        <v>-52.921669014136988</v>
       </c>
       <c r="T4" s="18">
         <v>71.900000000000006</v>
@@ -13594,11 +14465,11 @@
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>2.8243999999999989</v>
+        <v>-2.8243999999999989</v>
       </c>
       <c r="R5">
         <f t="shared" si="1"/>
-        <v>20.051826346242581</v>
+        <v>-20.051826346242581</v>
       </c>
       <c r="T5" s="18">
         <v>73</v>
@@ -13646,11 +14517,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>1.5177999999999994</v>
+        <v>-1.5177999999999994</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>18.896441821667782</v>
+        <v>-18.896441821667782</v>
       </c>
       <c r="T6" s="18">
         <v>79.5</v>
@@ -13698,11 +14569,11 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.5368999999999993</v>
+        <v>-1.5368999999999993</v>
       </c>
       <c r="R7">
         <f t="shared" si="1"/>
-        <v>18.611269208878763</v>
+        <v>-18.611269208878763</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
@@ -13744,11 +14615,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>1.1195999999999993</v>
+        <v>-1.1195999999999993</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>15.290486465816274</v>
+        <v>-15.290486465816274</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
@@ -13790,11 +14661,11 @@
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>1.2530000000000001</v>
+        <v>-1.2530000000000001</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>21.404168090194737</v>
+        <v>-21.404168090194737</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1">
@@ -13836,11 +14707,11 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>1.5432999999999995</v>
+        <v>-1.5432999999999995</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
-        <v>20.364725598089276</v>
+        <v>-20.364725598089276</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
@@ -13882,11 +14753,11 @@
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>1.2862</v>
+        <v>-1.2862</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>16.789369256474522</v>
+        <v>-16.789369256474522</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
@@ -13928,11 +14799,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>1.3513999999999999</v>
+        <v>-1.3513999999999999</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>19.581534181470424</v>
+        <v>-19.581534181470424</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
@@ -13974,11 +14845,11 @@
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>1.2406999999999995</v>
+        <v>-1.2406999999999995</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>16.733879125473738</v>
+        <v>-16.733879125473738</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
@@ -14020,11 +14891,11 @@
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>0.95679999999999943</v>
+        <v>-0.95679999999999943</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>13.536302416388427</v>
+        <v>-13.536302416388427</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
@@ -14066,11 +14937,11 @@
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>1.7555999999999994</v>
+        <v>-1.7555999999999994</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>21.523937963587318</v>
+        <v>-21.523937963587318</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
@@ -14112,11 +14983,11 @@
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>2.1514000000000006</v>
+        <v>-2.1514000000000006</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>21.047585505204669</v>
+        <v>-21.047585505204669</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" customHeight="1">
@@ -14158,11 +15029,11 @@
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>1.7316000000000003</v>
+        <v>-1.7316000000000003</v>
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>22.75636392309411</v>
+        <v>-22.75636392309411</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
@@ -14204,11 +15075,11 @@
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>1.9188000000000001</v>
+        <v>-1.9188000000000001</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>23.284147170177651</v>
+        <v>-23.284147170177651</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" customHeight="1">
@@ -14250,11 +15121,11 @@
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>1.4239999999999995</v>
+        <v>-1.4239999999999995</v>
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>21.635747603202812</v>
+        <v>-21.635747603202812</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15.75" customHeight="1">
@@ -14296,11 +15167,11 @@
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>1.6510999999999996</v>
+        <v>-1.6510999999999996</v>
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>19.274140829286509</v>
+        <v>-19.274140829286509</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" customHeight="1">
@@ -14342,11 +15213,11 @@
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
-        <v>2.2602000000000011</v>
+        <v>-2.2602000000000011</v>
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>19.65442576762873</v>
+        <v>-19.65442576762873</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1">
@@ -14388,11 +15259,11 @@
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>1.7526999999999999</v>
+        <v>-1.7526999999999999</v>
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>21.307868119042986</v>
+        <v>-21.307868119042986</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1">
@@ -14434,11 +15305,11 @@
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
-        <v>2.3224999999999998</v>
+        <v>-2.3224999999999998</v>
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>18.832964377518831</v>
+        <v>-18.832964377518831</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1">
@@ -14480,11 +15351,11 @@
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
-        <v>1.2618</v>
+        <v>-1.2618</v>
       </c>
       <c r="R24">
         <f t="shared" si="1"/>
-        <v>18.299421344974114</v>
+        <v>-18.299421344974114</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1">
@@ -14526,11 +15397,11 @@
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>1.4051999999999998</v>
+        <v>-1.4051999999999998</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>19.621313672922248</v>
+        <v>-19.621313672922248</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1">
@@ -14572,11 +15443,11 @@
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>1.5441000000000003</v>
+        <v>-1.5441000000000003</v>
       </c>
       <c r="R26">
         <f t="shared" si="1"/>
-        <v>18.843356438543399</v>
+        <v>-18.843356438543399</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1">
@@ -14618,11 +15489,11 @@
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>1.4407999999999994</v>
+        <v>-1.4407999999999994</v>
       </c>
       <c r="R27">
         <f t="shared" si="1"/>
-        <v>21.302580025134908</v>
+        <v>-21.302580025134908</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1">
@@ -14664,11 +15535,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>1.2972000000000001</v>
+        <v>-1.2972000000000001</v>
       </c>
       <c r="R28">
         <f t="shared" si="1"/>
-        <v>16.816178376976925</v>
+        <v>-16.816178376976925</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1">
@@ -14710,11 +15581,11 @@
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>2.5493000000000006</v>
+        <v>-2.5493000000000006</v>
       </c>
       <c r="R29">
         <f t="shared" si="1"/>
-        <v>19.776119402985078</v>
+        <v>-19.776119402985078</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1">
@@ -14756,11 +15627,11 @@
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>1.2913999999999994</v>
+        <v>-1.2913999999999994</v>
       </c>
       <c r="R30">
         <f t="shared" si="1"/>
-        <v>20.106808663023333</v>
+        <v>-20.106808663023333</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1">
@@ -14802,11 +15673,11 @@
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>1.6391</v>
+        <v>-1.6391</v>
       </c>
       <c r="R31">
         <f t="shared" si="1"/>
-        <v>23.744748660002898</v>
+        <v>-23.744748660002898</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1">
@@ -14848,11 +15719,11 @@
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
-        <v>1.573599999999999</v>
+        <v>-1.573599999999999</v>
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>18.776698565735138</v>
+        <v>-18.776698565735138</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15.75" customHeight="1">
@@ -14894,11 +15765,11 @@
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>2.4421999999999997</v>
+        <v>-2.4421999999999997</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>22.708422442489724</v>
+        <v>-22.708422442489724</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.75" customHeight="1">
@@ -14940,11 +15811,11 @@
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>2.0959999999999992</v>
+        <v>-2.0959999999999992</v>
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>21.710758012056921</v>
+        <v>-21.710758012056921</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.75" customHeight="1">
@@ -14986,11 +15857,11 @@
       </c>
       <c r="Q35">
         <f t="shared" si="0"/>
-        <v>2.9343000000000004</v>
+        <v>-2.9343000000000004</v>
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>19.29635353302864</v>
+        <v>-19.29635353302864</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="15.75" customHeight="1">
@@ -15032,11 +15903,11 @@
       </c>
       <c r="Q36">
         <f t="shared" si="0"/>
-        <v>2.0747999999999989</v>
+        <v>-2.0747999999999989</v>
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>21.044090351241966</v>
+        <v>-21.044090351241966</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" customHeight="1">
@@ -15078,11 +15949,11 @@
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
-        <v>2.6081000000000003</v>
+        <v>-2.6081000000000003</v>
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>22.448593143457192</v>
+        <v>-22.448593143457192</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="15.75" customHeight="1">
@@ -15124,11 +15995,11 @@
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
-        <v>1.7252000000000001</v>
+        <v>-1.7252000000000001</v>
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>22.461201958129365</v>
+        <v>-22.461201958129365</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="15.75" customHeight="1">
@@ -15170,11 +16041,11 @@
       </c>
       <c r="Q39">
         <f t="shared" si="0"/>
-        <v>1.3419999999999996</v>
+        <v>-1.3419999999999996</v>
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>20.941591373687245</v>
+        <v>-20.941591373687245</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="15.75" customHeight="1">
@@ -15216,11 +16087,11 @@
       </c>
       <c r="Q40">
         <f t="shared" si="0"/>
-        <v>1.6433999999999997</v>
+        <v>-1.6433999999999997</v>
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>23.231552162849869</v>
+        <v>-23.231552162849869</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1">
@@ -15262,11 +16133,11 @@
       </c>
       <c r="Q41">
         <f t="shared" si="0"/>
-        <v>1.6388000000000007</v>
+        <v>-1.6388000000000007</v>
       </c>
       <c r="R41">
         <f t="shared" si="1"/>
-        <v>22.652254443922271</v>
+        <v>-22.652254443922271</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="15.75" customHeight="1">
@@ -15308,11 +16179,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>1.7327000000000004</v>
+        <v>-1.7327000000000004</v>
       </c>
       <c r="R42">
         <f t="shared" si="1"/>
-        <v>20.915719079693879</v>
+        <v>-20.915719079693879</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15.75" customHeight="1">
@@ -15354,11 +16225,11 @@
       </c>
       <c r="Q43">
         <f t="shared" si="0"/>
-        <v>2.0577000000000005</v>
+        <v>-2.0577000000000005</v>
       </c>
       <c r="R43">
         <f t="shared" si="1"/>
-        <v>21.246476473685842</v>
+        <v>-21.246476473685842</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" customHeight="1">
@@ -15400,11 +16271,11 @@
       </c>
       <c r="Q44">
         <f t="shared" si="0"/>
-        <v>1.4454000000000002</v>
+        <v>-1.4454000000000002</v>
       </c>
       <c r="R44">
         <f t="shared" si="1"/>
-        <v>25.274533118836125</v>
+        <v>-25.274533118836125</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" customHeight="1">
@@ -15446,11 +16317,11 @@
       </c>
       <c r="Q45">
         <f t="shared" si="0"/>
-        <v>1.4769000000000005</v>
+        <v>-1.4769000000000005</v>
       </c>
       <c r="R45">
         <f t="shared" si="1"/>
-        <v>21.593999473638046</v>
+        <v>-21.593999473638046</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15.75" customHeight="1">
@@ -15492,11 +16363,11 @@
       </c>
       <c r="Q46">
         <f t="shared" si="0"/>
-        <v>1.9188999999999998</v>
+        <v>-1.9188999999999998</v>
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>20.106668343182864</v>
+        <v>-20.106668343182864</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="15.75" customHeight="1">
@@ -15538,11 +16409,11 @@
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
-        <v>1.3940000000000001</v>
+        <v>-1.3940000000000001</v>
       </c>
       <c r="R47">
         <f t="shared" si="1"/>
-        <v>21.120572103875642</v>
+        <v>-21.120572103875642</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.75" customHeight="1">
@@ -15584,11 +16455,11 @@
       </c>
       <c r="Q48">
         <f t="shared" si="0"/>
-        <v>2.1198000000000015</v>
+        <v>-2.1198000000000015</v>
       </c>
       <c r="R48">
         <f t="shared" si="1"/>
-        <v>20.075574622837188</v>
+        <v>-20.075574622837188</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15.75" customHeight="1">
@@ -15630,11 +16501,11 @@
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
-        <v>1.2199</v>
+        <v>-1.2199</v>
       </c>
       <c r="R49">
         <f t="shared" si="1"/>
-        <v>20.505278020574195</v>
+        <v>-20.505278020574195</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="15.75" customHeight="1">
@@ -15676,11 +16547,11 @@
       </c>
       <c r="Q50">
         <f t="shared" si="0"/>
-        <v>2.7530000000000001</v>
+        <v>-2.7530000000000001</v>
       </c>
       <c r="R50">
         <f t="shared" si="1"/>
-        <v>18.666811318068092</v>
+        <v>-18.666811318068092</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1">
@@ -15722,11 +16593,11 @@
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
-        <v>0.85130000000000017</v>
+        <v>-0.85130000000000017</v>
       </c>
       <c r="R51">
         <f t="shared" si="1"/>
-        <v>16.306242457907945</v>
+        <v>-16.306242457907945</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="15.75" customHeight="1">
@@ -15768,11 +16639,11 @@
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
-        <v>1.3455000000000004</v>
+        <v>-1.3455000000000004</v>
       </c>
       <c r="R52">
         <f t="shared" si="1"/>
-        <v>21.326338146486826</v>
+        <v>-21.326338146486826</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="15.75" customHeight="1">
@@ -15814,11 +16685,11 @@
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
-        <v>1.4661999999999997</v>
+        <v>-1.4661999999999997</v>
       </c>
       <c r="R53">
         <f t="shared" si="1"/>
-        <v>16.755039539242123</v>
+        <v>-16.755039539242123</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15.75" customHeight="1">
@@ -15860,11 +16731,11 @@
       </c>
       <c r="Q54">
         <f t="shared" si="0"/>
-        <v>1.8472999999999997</v>
+        <v>-1.8472999999999997</v>
       </c>
       <c r="R54">
         <f t="shared" si="1"/>
-        <v>26.997837016251601</v>
+        <v>-26.997837016251601</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15.75" customHeight="1">
@@ -15906,11 +16777,11 @@
       </c>
       <c r="Q55">
         <f t="shared" si="0"/>
-        <v>2.7903000000000002</v>
+        <v>-2.7903000000000002</v>
       </c>
       <c r="R55">
         <f t="shared" si="1"/>
-        <v>18.254196705439035</v>
+        <v>-18.254196705439035</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15.75" customHeight="1">
@@ -15952,11 +16823,11 @@
       </c>
       <c r="Q56">
         <f t="shared" si="0"/>
-        <v>1.4832999999999998</v>
+        <v>-1.4832999999999998</v>
       </c>
       <c r="R56">
         <f t="shared" si="1"/>
-        <v>19.899916820950388</v>
+        <v>-19.899916820950388</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1">
@@ -15998,11 +16869,11 @@
       </c>
       <c r="Q57">
         <f t="shared" si="0"/>
-        <v>2.4312999999999985</v>
+        <v>-2.4312999999999985</v>
       </c>
       <c r="R57">
         <f t="shared" si="1"/>
-        <v>18.124822948815424</v>
+        <v>-18.124822948815424</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15.75" customHeight="1">
@@ -16044,11 +16915,11 @@
       </c>
       <c r="Q58">
         <f t="shared" si="0"/>
-        <v>1.1319999999999997</v>
+        <v>-1.1319999999999997</v>
       </c>
       <c r="R58">
         <f t="shared" si="1"/>
-        <v>19.46455284832436</v>
+        <v>-19.46455284832436</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="15.75" customHeight="1">
@@ -16090,11 +16961,11 @@
       </c>
       <c r="Q59">
         <f t="shared" si="0"/>
-        <v>1.3318000000000003</v>
+        <v>-1.3318000000000003</v>
       </c>
       <c r="R59">
         <f t="shared" si="1"/>
-        <v>21.268644798620208</v>
+        <v>-21.268644798620208</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15.75" customHeight="1">
@@ -16136,11 +17007,11 @@
       </c>
       <c r="Q60">
         <f t="shared" si="0"/>
-        <v>1.4875000000000007</v>
+        <v>-1.4875000000000007</v>
       </c>
       <c r="R60">
         <f t="shared" si="1"/>
-        <v>20.511300175121697</v>
+        <v>-20.511300175121697</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15.75" customHeight="1">
@@ -16182,11 +17053,11 @@
       </c>
       <c r="Q61">
         <f t="shared" si="0"/>
-        <v>1.6356000000000002</v>
+        <v>-1.6356000000000002</v>
       </c>
       <c r="R61">
         <f t="shared" si="1"/>
-        <v>18.746991266075234</v>
+        <v>-18.746991266075234</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15.75" customHeight="1">
@@ -16228,11 +17099,11 @@
       </c>
       <c r="Q62">
         <f t="shared" si="0"/>
-        <v>1.5598000000000001</v>
+        <v>-1.5598000000000001</v>
       </c>
       <c r="R62">
         <f t="shared" si="1"/>
-        <v>20.218281744180018</v>
+        <v>-20.218281744180018</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15.75" customHeight="1">
@@ -16274,11 +17145,11 @@
       </c>
       <c r="Q63">
         <f t="shared" si="0"/>
-        <v>1.3826000000000001</v>
+        <v>-1.3826000000000001</v>
       </c>
       <c r="R63">
         <f t="shared" si="1"/>
-        <v>21.258341277407055</v>
+        <v>-21.258341277407055</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="15.75" customHeight="1">
@@ -16320,11 +17191,11 @@
       </c>
       <c r="Q64">
         <f t="shared" si="0"/>
-        <v>1.2899000000000003</v>
+        <v>-1.2899000000000003</v>
       </c>
       <c r="R64">
         <f t="shared" si="1"/>
-        <v>16.176120189112254</v>
+        <v>-16.176120189112254</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15.75" customHeight="1">
@@ -16366,11 +17237,11 @@
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
-        <v>1.2462999999999997</v>
+        <v>-1.2462999999999997</v>
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
-        <v>18.678716484570536</v>
+        <v>-18.678716484570536</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15.75" customHeight="1">
@@ -16411,12 +17282,12 @@
         <v>6.6814999999999998</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q68" si="2">N66-O66</f>
-        <v>1.8563000000000009</v>
+        <f t="shared" si="0"/>
+        <v>-1.8563000000000009</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R68" si="3">Q66/N66*100</f>
-        <v>21.742134976223394</v>
+        <f t="shared" ref="R66:R68" si="2">Q66/N66*100</f>
+        <v>-21.742134976223394</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="15.75" customHeight="1">
@@ -16457,12 +17328,12 @@
         <v>7.0324</v>
       </c>
       <c r="Q67">
+        <f t="shared" ref="Q67:Q68" si="3">O67-N67</f>
+        <v>-1.6553999999999993</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="2"/>
-        <v>1.6553999999999993</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="3"/>
-        <v>19.054306038352625</v>
+        <v>-19.054306038352625</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1">
@@ -16503,12 +17374,12 @@
         <v>7.9511000000000003</v>
       </c>
       <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>-1.9993999999999996</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="2"/>
-        <v>1.9993999999999996</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="3"/>
-        <v>20.093462640068335</v>
+        <v>-20.093462640068335</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="15.75" customHeight="1">
@@ -16554,11 +17425,11 @@
   </sheetPr>
   <dimension ref="A1:U142"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
@@ -16625,8 +17496,8 @@
       </c>
       <c r="O2" s="6"/>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q65" si="0">N2-O2</f>
-        <v>1.1254</v>
+        <f>O2-N2</f>
+        <v>-1.1254</v>
       </c>
       <c r="R2" t="s">
         <v>13</v>
@@ -16674,8 +17545,8 @@
       </c>
       <c r="O3" s="6"/>
       <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>1.6948000000000001</v>
+        <f t="shared" ref="Q3:Q66" si="0">O3-N3</f>
+        <v>-1.6948000000000001</v>
       </c>
       <c r="R3" t="s">
         <v>13</v>
@@ -16725,12 +17596,12 @@
         <v>1.0911</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>0.57519999999999993</v>
+        <f>O4-N4</f>
+        <v>-0.57519999999999993</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R65" si="1">Q4/N4*100</f>
-        <v>34.519594310748367</v>
+        <f>Q4/N4*100</f>
+        <v>-34.519594310748367</v>
       </c>
       <c r="T4" s="18">
         <v>34.299999999999997</v>
@@ -16778,11 +17649,11 @@
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.46089999999999987</v>
+        <v>-0.46089999999999987</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
-        <v>22.946330777656073</v>
+        <f>Q5/N5*100</f>
+        <v>-22.946330777656073</v>
       </c>
       <c r="T5" s="18">
         <v>34.5</v>
@@ -16830,11 +17701,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.20569999999999999</v>
+        <v>-0.20569999999999999</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
-        <v>12.899786780383796</v>
+        <f>Q6/N6*100</f>
+        <v>-12.899786780383796</v>
       </c>
       <c r="T6" s="18">
         <v>38.700000000000003</v>
@@ -16882,11 +17753,11 @@
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>-0.35579999999999989</v>
+        <v>0.35579999999999989</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
-        <v>-26.747857465042841</v>
+        <f>Q7/N7*100</f>
+        <v>26.747857465042841</v>
       </c>
       <c r="T7" s="18">
         <v>38.9</v>
@@ -16934,11 +17805,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>0.30580000000000007</v>
+        <v>-0.30580000000000007</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
-        <v>14.593872291686555</v>
+        <f>Q8/N8*100</f>
+        <v>-14.593872291686555</v>
       </c>
       <c r="T8" s="18">
         <v>39.1</v>
@@ -16984,7 +17855,7 @@
       <c r="O9" s="6"/>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>1.6046</v>
+        <v>-1.6046</v>
       </c>
       <c r="R9" t="s">
         <v>13</v>
@@ -17035,11 +17906,11 @@
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>5.0999999999998824E-3</v>
+        <v>-5.0999999999998824E-3</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0.39083454670855106</v>
+        <f>Q10/N10*100</f>
+        <v>-0.39083454670855106</v>
       </c>
       <c r="T10" s="18">
         <v>39.5</v>
@@ -17085,7 +17956,7 @@
       <c r="O11" s="6"/>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>1.3465</v>
+        <v>-1.3465</v>
       </c>
       <c r="R11" t="s">
         <v>13</v>
@@ -17136,11 +18007,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>0.24679999999999991</v>
+        <v>-0.24679999999999991</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
-        <v>14.211677991477595</v>
+        <f>Q12/N12*100</f>
+        <v>-14.211677991477595</v>
       </c>
       <c r="T12" s="18">
         <v>40</v>
@@ -17188,11 +18059,11 @@
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0.16979999999999995</v>
+        <v>-0.16979999999999995</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
-        <v>11.531409168081492</v>
+        <f>Q13/N13*100</f>
+        <v>-11.531409168081492</v>
       </c>
       <c r="T13" s="18">
         <v>40</v>
@@ -17238,7 +18109,7 @@
       <c r="O14" s="6"/>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>1.7969999999999999</v>
+        <v>-1.7969999999999999</v>
       </c>
       <c r="R14" t="s">
         <v>13</v>
@@ -17289,11 +18160,11 @@
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>0.81583000000000006</v>
+        <v>-0.81583000000000006</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
-        <v>43.418307610431086</v>
+        <f>Q15/N15*100</f>
+        <v>-43.418307610431086</v>
       </c>
       <c r="T15" s="18">
         <v>40.200000000000003</v>
@@ -17341,11 +18212,11 @@
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>-0.58209999999999995</v>
+        <v>0.58209999999999995</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
-        <v>-64.527214277796247</v>
+        <f>Q16/N16*100</f>
+        <v>64.527214277796247</v>
       </c>
       <c r="T16" s="18">
         <v>41</v>
@@ -17393,11 +18264,11 @@
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>9.2999999999998639E-3</v>
+        <v>-9.2999999999998639E-3</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
-        <v>0.73879885605337337</v>
+        <f>Q17/N17*100</f>
+        <v>-0.73879885605337337</v>
       </c>
       <c r="T17" s="18">
         <v>41.2</v>
@@ -17445,11 +18316,11 @@
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>0.18969999999999998</v>
+        <v>-0.18969999999999998</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
-        <v>13.24998253824125</v>
+        <f>Q18/N18*100</f>
+        <v>-13.24998253824125</v>
       </c>
       <c r="T18" s="18">
         <v>41.2</v>
@@ -17495,7 +18366,7 @@
       <c r="O19" s="6"/>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>1.4987999999999999</v>
+        <v>-1.4987999999999999</v>
       </c>
       <c r="R19" t="s">
         <v>13</v>
@@ -17546,11 +18417,11 @@
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>-8.5199999999999942E-2</v>
+        <v>8.5199999999999942E-2</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
-        <v>-11.37668580584857</v>
+        <f>Q20/N20*100</f>
+        <v>11.37668580584857</v>
       </c>
       <c r="T20" s="18">
         <v>41.5</v>
@@ -17598,11 +18469,11 @@
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
-        <v>-1.8100000000000005E-2</v>
+        <v>1.8100000000000005E-2</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
-        <v>-1.876814599751141</v>
+        <f>Q21/N21*100</f>
+        <v>1.876814599751141</v>
       </c>
       <c r="T21" s="18">
         <v>41.9</v>
@@ -17650,11 +18521,11 @@
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>0.36560000000000015</v>
+        <v>-0.36560000000000015</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
-        <v>20.634383113218206</v>
+        <f>Q22/N22*100</f>
+        <v>-20.634383113218206</v>
       </c>
       <c r="T22" s="18">
         <v>41.9</v>
@@ -17702,11 +18573,11 @@
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
-        <v>2.2599999999999953E-2</v>
+        <v>-2.2599999999999953E-2</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
-        <v>1.2854055283812964</v>
+        <f>Q23/N23*100</f>
+        <v>-1.2854055283812964</v>
       </c>
       <c r="T23" s="18">
         <v>42</v>
@@ -17754,11 +18625,11 @@
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
-        <v>7.6899999999999746E-2</v>
+        <v>-7.6899999999999746E-2</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
-        <v>3.2518606224627775</v>
+        <f>Q24/N24*100</f>
+        <v>-3.2518606224627775</v>
       </c>
       <c r="T24" s="18">
         <v>42.1</v>
@@ -17804,7 +18675,7 @@
       <c r="O25" s="6"/>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>1.5579000000000001</v>
+        <v>-1.5579000000000001</v>
       </c>
       <c r="R25" t="s">
         <v>13</v>
@@ -17853,7 +18724,7 @@
       <c r="O26" s="6"/>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>1.6753</v>
+        <v>-1.6753</v>
       </c>
       <c r="R26" t="s">
         <v>13</v>
@@ -17904,11 +18775,11 @@
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>5.9900000000000064E-2</v>
+        <v>-5.9900000000000064E-2</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
-        <v>5.4247418945843204</v>
+        <f>Q27/N27*100</f>
+        <v>-5.4247418945843204</v>
       </c>
       <c r="T27" s="18">
         <v>42.3</v>
@@ -17956,11 +18827,11 @@
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0.1956</v>
+        <v>-0.1956</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
-        <v>11.697165410836025</v>
+        <f>Q28/N28*100</f>
+        <v>-11.697165410836025</v>
       </c>
       <c r="T28" s="18">
         <v>42.5</v>
@@ -18008,11 +18879,11 @@
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>0.14139999999999997</v>
+        <v>-0.14139999999999997</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
-        <v>11.108492418886007</v>
+        <f>Q29/N29*100</f>
+        <v>-11.108492418886007</v>
       </c>
       <c r="T29" s="18">
         <v>42.5</v>
@@ -18058,7 +18929,7 @@
       <c r="O30" s="6"/>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>1.0116000000000001</v>
+        <v>-1.0116000000000001</v>
       </c>
       <c r="R30" t="s">
         <v>13</v>
@@ -18109,11 +18980,11 @@
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>-0.25560000000000005</v>
+        <v>0.25560000000000005</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
-        <v>-19.857054070851465</v>
+        <f t="shared" ref="R31:R40" si="1">Q31/N31*100</f>
+        <v>19.857054070851465</v>
       </c>
       <c r="T31" s="18">
         <v>42.9</v>
@@ -18161,11 +19032,11 @@
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
-        <v>6.9000000000000172E-2</v>
+        <v>-6.9000000000000172E-2</v>
       </c>
       <c r="R32">
         <f t="shared" si="1"/>
-        <v>3.547557840616975</v>
+        <v>-3.547557840616975</v>
       </c>
       <c r="T32" s="18">
         <v>42.9</v>
@@ -18213,11 +19084,11 @@
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>0.13949999999999996</v>
+        <v>-0.13949999999999996</v>
       </c>
       <c r="R33">
         <f t="shared" si="1"/>
-        <v>7.2524044710163746</v>
+        <v>-7.2524044710163746</v>
       </c>
       <c r="T33" s="18">
         <v>43.2</v>
@@ -18265,11 +19136,11 @@
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>7.7499999999999902E-2</v>
+        <v>-7.7499999999999902E-2</v>
       </c>
       <c r="R34">
         <f t="shared" si="1"/>
-        <v>4.4283183818067489</v>
+        <v>-4.4283183818067489</v>
       </c>
       <c r="T34" s="18">
         <v>43.2</v>
@@ -18317,11 +19188,11 @@
       </c>
       <c r="Q35">
         <f t="shared" si="0"/>
-        <v>6.2300000000000022E-2</v>
+        <v>-6.2300000000000022E-2</v>
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>5.4981908039890586</v>
+        <v>-5.4981908039890586</v>
       </c>
       <c r="T35" s="18">
         <v>43.3</v>
@@ -18369,11 +19240,11 @@
       </c>
       <c r="Q36">
         <f t="shared" si="0"/>
-        <v>-1.6599999999999948E-2</v>
+        <v>1.6599999999999948E-2</v>
       </c>
       <c r="R36">
         <f t="shared" si="1"/>
-        <v>-1.0665638653302458</v>
+        <v>1.0665638653302458</v>
       </c>
       <c r="T36" s="18">
         <v>43.5</v>
@@ -18421,11 +19292,11 @@
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
-        <v>0.17289999999999983</v>
+        <v>-0.17289999999999983</v>
       </c>
       <c r="R37">
         <f t="shared" si="1"/>
-        <v>10.253825169019088</v>
+        <v>-10.253825169019088</v>
       </c>
       <c r="T37" s="18">
         <v>43.8</v>
@@ -18473,11 +19344,11 @@
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
-        <v>0.76710000000000012</v>
+        <v>-0.76710000000000012</v>
       </c>
       <c r="R38">
         <f t="shared" si="1"/>
-        <v>41.913452081739706</v>
+        <v>-41.913452081739706</v>
       </c>
       <c r="T38" s="18">
         <v>44.1</v>
@@ -18525,11 +19396,11 @@
       </c>
       <c r="Q39">
         <f t="shared" si="0"/>
-        <v>0.14549999999999996</v>
+        <v>-0.14549999999999996</v>
       </c>
       <c r="R39">
         <f t="shared" si="1"/>
-        <v>7.9765363741022943</v>
+        <v>-7.9765363741022943</v>
       </c>
       <c r="T39" s="18">
         <v>44.2</v>
@@ -18577,11 +19448,11 @@
       </c>
       <c r="Q40">
         <f t="shared" si="0"/>
-        <v>2.2500000000000187E-2</v>
+        <v>-2.2500000000000187E-2</v>
       </c>
       <c r="R40">
         <f t="shared" si="1"/>
-        <v>1.7338367881636885</v>
+        <v>-1.7338367881636885</v>
       </c>
       <c r="T40" s="18">
         <v>44.3</v>
@@ -18627,7 +19498,7 @@
       <c r="O41" s="6"/>
       <c r="Q41">
         <f t="shared" si="0"/>
-        <v>1.7075</v>
+        <v>-1.7075</v>
       </c>
       <c r="R41" t="s">
         <v>13</v>
@@ -18678,11 +19549,11 @@
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>0.85699999999999998</v>
+        <v>-0.85699999999999998</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
-        <v>43.628773608919211</v>
+        <f>Q42/N42*100</f>
+        <v>-43.628773608919211</v>
       </c>
       <c r="T42" s="18">
         <v>44.5</v>
@@ -18730,11 +19601,11 @@
       </c>
       <c r="Q43">
         <f t="shared" si="0"/>
-        <v>0.35689999999999988</v>
+        <v>-0.35689999999999988</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
-        <v>28.625280718639711</v>
+        <f>Q43/N43*100</f>
+        <v>-28.625280718639711</v>
       </c>
       <c r="T43" s="18">
         <v>44.6</v>
@@ -18782,11 +19653,11 @@
       </c>
       <c r="Q44">
         <f t="shared" si="0"/>
-        <v>-7.4000000000000732E-3</v>
+        <v>7.4000000000000732E-3</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
-        <v>-0.65175268627797023</v>
+        <f>Q44/N44*100</f>
+        <v>0.65175268627797023</v>
       </c>
       <c r="T44" s="18">
         <v>44.6</v>
@@ -18832,7 +19703,7 @@
       <c r="O45" s="6"/>
       <c r="Q45">
         <f t="shared" si="0"/>
-        <v>1.1101000000000001</v>
+        <v>-1.1101000000000001</v>
       </c>
       <c r="R45" t="s">
         <v>13</v>
@@ -18883,11 +19754,11 @@
       </c>
       <c r="Q46">
         <f t="shared" si="0"/>
-        <v>5.0000000000000044E-2</v>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
-        <v>2.792672028596964</v>
+        <f t="shared" ref="R46:R77" si="2">Q46/N46*100</f>
+        <v>-2.792672028596964</v>
       </c>
       <c r="T46" s="18">
         <v>45.2</v>
@@ -18935,11 +19806,11 @@
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
-        <v>0.19999999999999996</v>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
-        <v>12.487512487512484</v>
+        <f t="shared" si="2"/>
+        <v>-12.487512487512484</v>
       </c>
       <c r="T47" s="18">
         <v>45.5</v>
@@ -18987,11 +19858,11 @@
       </c>
       <c r="Q48">
         <f t="shared" si="0"/>
-        <v>0.33750000000000013</v>
+        <v>-0.33750000000000013</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
-        <v>23.197470616537228</v>
+        <f t="shared" si="2"/>
+        <v>-23.197470616537228</v>
       </c>
       <c r="T48" s="18">
         <v>45.5</v>
@@ -19039,11 +19910,11 @@
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
-        <v>0.31119999999999992</v>
+        <v>-0.31119999999999992</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
-        <v>26.825273683303159</v>
+        <f t="shared" si="2"/>
+        <v>-26.825273683303159</v>
       </c>
       <c r="T49" s="18">
         <v>45.6</v>
@@ -19091,11 +19962,11 @@
       </c>
       <c r="Q50">
         <f t="shared" si="0"/>
-        <v>0.24250000000000005</v>
+        <v>-0.24250000000000005</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
-        <v>21.418477300830244</v>
+        <f t="shared" si="2"/>
+        <v>-21.418477300830244</v>
       </c>
       <c r="T50" s="18">
         <v>45.7</v>
@@ -19143,11 +20014,11 @@
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
-        <v>0.27200000000000002</v>
+        <v>-0.27200000000000002</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
-        <v>19.273010699355204</v>
+        <f t="shared" si="2"/>
+        <v>-19.273010699355204</v>
       </c>
       <c r="T51" s="18">
         <v>45.7</v>
@@ -19195,11 +20066,11 @@
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
-        <v>0.33840000000000003</v>
+        <v>-0.33840000000000003</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
-        <v>18.51507358975762</v>
+        <f t="shared" si="2"/>
+        <v>-18.51507358975762</v>
       </c>
       <c r="T52" s="18">
         <v>45.8</v>
@@ -19247,11 +20118,11 @@
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
-        <v>0.20930000000000004</v>
+        <v>-0.20930000000000004</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
-        <v>14.35331230283912</v>
+        <f t="shared" si="2"/>
+        <v>-14.35331230283912</v>
       </c>
       <c r="T53" s="18">
         <v>46</v>
@@ -19299,11 +20170,11 @@
       </c>
       <c r="Q54">
         <f t="shared" si="0"/>
-        <v>0.30989999999999984</v>
+        <v>-0.30989999999999984</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
-        <v>18.966889038496841</v>
+        <f t="shared" si="2"/>
+        <v>-18.966889038496841</v>
       </c>
       <c r="T54" s="18">
         <v>46</v>
@@ -19351,11 +20222,11 @@
       </c>
       <c r="Q55">
         <f t="shared" si="0"/>
-        <v>0.35200000000000009</v>
+        <v>-0.35200000000000009</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
-        <v>24.012552015826461</v>
+        <f t="shared" si="2"/>
+        <v>-24.012552015826461</v>
       </c>
       <c r="T55" s="18">
         <v>46</v>
@@ -19403,11 +20274,11 @@
       </c>
       <c r="Q56">
         <f t="shared" si="0"/>
-        <v>0.34250000000000003</v>
+        <v>-0.34250000000000003</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
-        <v>18.776382873745959</v>
+        <f t="shared" si="2"/>
+        <v>-18.776382873745959</v>
       </c>
       <c r="T56" s="18">
         <v>46.8</v>
@@ -19455,11 +20326,11 @@
       </c>
       <c r="Q57">
         <f t="shared" si="0"/>
-        <v>0.41349999999999998</v>
+        <v>-0.41349999999999998</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
-        <v>21.964304685010092</v>
+        <f t="shared" si="2"/>
+        <v>-21.964304685010092</v>
       </c>
       <c r="T57" s="18">
         <v>46.8</v>
@@ -19507,11 +20378,11 @@
       </c>
       <c r="Q58">
         <f t="shared" si="0"/>
-        <v>0.36470000000000002</v>
+        <v>-0.36470000000000002</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
-        <v>20.394810423889947</v>
+        <f t="shared" si="2"/>
+        <v>-20.394810423889947</v>
       </c>
       <c r="T58" s="18">
         <v>47</v>
@@ -19559,11 +20430,11 @@
       </c>
       <c r="Q59">
         <f t="shared" si="0"/>
-        <v>0.13179999999999997</v>
+        <v>-0.13179999999999997</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
-        <v>30.257116620752978</v>
+        <f t="shared" si="2"/>
+        <v>-30.257116620752978</v>
       </c>
       <c r="T59" s="18">
         <v>47.3</v>
@@ -19611,11 +20482,11 @@
       </c>
       <c r="Q60">
         <f t="shared" si="0"/>
-        <v>0.33530000000000015</v>
+        <v>-0.33530000000000015</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
-        <v>23.463960811756483</v>
+        <f t="shared" si="2"/>
+        <v>-23.463960811756483</v>
       </c>
       <c r="T60" s="18">
         <v>47.4</v>
@@ -19663,11 +20534,11 @@
       </c>
       <c r="Q61">
         <f t="shared" si="0"/>
-        <v>0.30259999999999998</v>
+        <v>-0.30259999999999998</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
-        <v>16.937199149221986</v>
+        <f t="shared" si="2"/>
+        <v>-16.937199149221986</v>
       </c>
       <c r="T61" s="18">
         <v>47.4</v>
@@ -19715,11 +20586,11 @@
       </c>
       <c r="Q62">
         <f t="shared" si="0"/>
-        <v>0.19090000000000007</v>
+        <v>-0.19090000000000007</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
-        <v>11.114992721979625</v>
+        <f t="shared" si="2"/>
+        <v>-11.114992721979625</v>
       </c>
       <c r="T62" s="18">
         <v>47.5</v>
@@ -19767,11 +20638,11 @@
       </c>
       <c r="Q63">
         <f t="shared" si="0"/>
-        <v>0.35170000000000001</v>
+        <v>-0.35170000000000001</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
-        <v>37.486676614794284</v>
+        <f t="shared" si="2"/>
+        <v>-37.486676614794284</v>
       </c>
       <c r="T63" s="18">
         <v>47.5</v>
@@ -19819,11 +20690,11 @@
       </c>
       <c r="Q64">
         <f t="shared" si="0"/>
-        <v>0.27979999999999983</v>
+        <v>-0.27979999999999983</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
-        <v>19.931614190055551</v>
+        <f t="shared" si="2"/>
+        <v>-19.931614190055551</v>
       </c>
       <c r="T64" s="18">
         <v>47.6</v>
@@ -19871,11 +20742,11 @@
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
-        <v>-1.0147000000000002</v>
+        <v>1.0147000000000002</v>
       </c>
       <c r="R65">
-        <f t="shared" si="1"/>
-        <v>-100.69465118586882</v>
+        <f t="shared" si="2"/>
+        <v>100.69465118586882</v>
       </c>
       <c r="T65" s="18">
         <v>47.6</v>
@@ -19922,12 +20793,12 @@
         <v>1.4919</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q80" si="2">N66-O66</f>
-        <v>0.37959999999999994</v>
+        <f t="shared" si="0"/>
+        <v>-0.37959999999999994</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R129" si="3">Q66/N66*100</f>
-        <v>20.283195297889392</v>
+        <f t="shared" si="2"/>
+        <v>-20.283195297889392</v>
       </c>
       <c r="T66" s="18">
         <v>47.7</v>
@@ -19974,12 +20845,12 @@
         <v>0.71819999999999995</v>
       </c>
       <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="3">O67-N67</f>
+        <v>-1.8900000000000028E-2</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="2"/>
-        <v>1.8900000000000028E-2</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="3"/>
-        <v>2.5641025641025679</v>
+        <v>-2.5641025641025679</v>
       </c>
       <c r="T67" s="18">
         <v>47.8</v>
@@ -20026,12 +20897,12 @@
         <v>0.95309999999999995</v>
       </c>
       <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>-0.27610000000000012</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="2"/>
-        <v>0.27610000000000012</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="3"/>
-        <v>22.461763748779703</v>
+        <v>-22.461763748779703</v>
       </c>
       <c r="T68" s="18">
         <v>48</v>
@@ -20078,12 +20949,12 @@
         <v>0.79430000000000001</v>
       </c>
       <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>-0.16269999999999996</v>
+      </c>
+      <c r="R69">
         <f t="shared" si="2"/>
-        <v>0.16269999999999996</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="3"/>
-        <v>17.001044932079413</v>
+        <v>-17.001044932079413</v>
       </c>
       <c r="T69" s="18">
         <v>48.1</v>
@@ -20130,12 +21001,12 @@
         <v>1.2332000000000001</v>
       </c>
       <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>-0.16269999999999984</v>
+      </c>
+      <c r="R70">
         <f t="shared" si="2"/>
-        <v>0.16269999999999984</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="3"/>
-        <v>11.655562719392497</v>
+        <v>-11.655562719392497</v>
       </c>
       <c r="T70" s="18">
         <v>48.2</v>
@@ -20182,12 +21053,12 @@
         <v>1.8528</v>
       </c>
       <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>-0.28559999999999985</v>
+      </c>
+      <c r="R71">
         <f t="shared" si="2"/>
-        <v>0.28559999999999985</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="3"/>
-        <v>13.355780022446684</v>
+        <v>-13.355780022446684</v>
       </c>
       <c r="T71" s="18">
         <v>48.7</v>
@@ -20234,12 +21105,12 @@
         <v>1.4097999999999999</v>
       </c>
       <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>-0.39480000000000004</v>
+      </c>
+      <c r="R72">
         <f t="shared" si="2"/>
-        <v>0.39480000000000004</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="3"/>
-        <v>21.87742435996897</v>
+        <v>-21.87742435996897</v>
       </c>
       <c r="T72" s="18">
         <v>48.8</v>
@@ -20286,12 +21157,12 @@
         <v>1.4177</v>
       </c>
       <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>-4.510000000000014E-2</v>
+      </c>
+      <c r="R73">
         <f t="shared" si="2"/>
-        <v>4.510000000000014E-2</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="3"/>
-        <v>3.0831282471971653</v>
+        <v>-3.0831282471971653</v>
       </c>
       <c r="T73" s="18">
         <v>48.8</v>
@@ -20338,12 +21209,12 @@
         <v>1.6286</v>
       </c>
       <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>-0.50119999999999987</v>
+      </c>
+      <c r="R74">
         <f t="shared" si="2"/>
-        <v>0.50119999999999987</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="3"/>
-        <v>23.532726077565965</v>
+        <v>-23.532726077565965</v>
       </c>
       <c r="T74" s="18">
         <v>48.8</v>
@@ -20390,12 +21261,12 @@
         <v>1.2701</v>
       </c>
       <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>-0.17779999999999996</v>
+      </c>
+      <c r="R75">
         <f t="shared" si="2"/>
-        <v>0.17779999999999996</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="3"/>
-        <v>12.279853581048412</v>
+        <v>-12.279853581048412</v>
       </c>
       <c r="T75" s="18">
         <v>49</v>
@@ -20442,12 +21313,12 @@
         <v>1.0482</v>
       </c>
       <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>-0.17680000000000007</v>
+      </c>
+      <c r="R76">
         <f t="shared" si="2"/>
-        <v>0.17680000000000007</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="3"/>
-        <v>14.432653061224492</v>
+        <v>-14.432653061224492</v>
       </c>
       <c r="T76" s="18">
         <v>49</v>
@@ -20494,12 +21365,12 @@
         <v>1.2418</v>
       </c>
       <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>-0.31410000000000005</v>
+      </c>
+      <c r="R77">
         <f t="shared" si="2"/>
-        <v>0.31410000000000005</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="3"/>
-        <v>20.187672729609872</v>
+        <v>-20.187672729609872</v>
       </c>
       <c r="T77" s="18">
         <v>49.2</v>
@@ -20546,12 +21417,12 @@
         <v>1.0387999999999999</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="2"/>
-        <v>0.29810000000000003</v>
+        <f t="shared" si="3"/>
+        <v>-0.29810000000000003</v>
       </c>
       <c r="R78">
-        <f t="shared" si="3"/>
-        <v>22.297853242576114</v>
+        <f t="shared" ref="R78:R109" si="4">Q78/N78*100</f>
+        <v>-22.297853242576114</v>
       </c>
       <c r="T78" s="18">
         <v>49.3</v>
@@ -20598,12 +21469,12 @@
         <v>1.171</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="2"/>
-        <v>0.25629999999999997</v>
+        <f t="shared" si="3"/>
+        <v>-0.25629999999999997</v>
       </c>
       <c r="R79">
-        <f t="shared" si="3"/>
-        <v>17.956981713725213</v>
+        <f t="shared" si="4"/>
+        <v>-17.956981713725213</v>
       </c>
       <c r="T79" s="18">
         <v>49.4</v>
@@ -20650,12 +21521,12 @@
         <v>1.4098999999999999</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="2"/>
-        <v>0.38329999999999997</v>
+        <f t="shared" si="3"/>
+        <v>-0.38329999999999997</v>
       </c>
       <c r="R80">
-        <f t="shared" si="3"/>
-        <v>21.375195181797903</v>
+        <f t="shared" si="4"/>
+        <v>-21.375195181797903</v>
       </c>
       <c r="T80" s="18">
         <v>49.6</v>
@@ -20702,12 +21573,12 @@
         <v>1.3374999999999999</v>
       </c>
       <c r="Q81">
-        <f t="shared" ref="Q81:Q141" si="4">N81-O81</f>
-        <v>0.23850000000000016</v>
+        <f t="shared" si="3"/>
+        <v>-0.23850000000000016</v>
       </c>
       <c r="R81">
-        <f t="shared" si="3"/>
-        <v>15.133248730964477</v>
+        <f t="shared" si="4"/>
+        <v>-15.133248730964477</v>
       </c>
       <c r="T81" s="18">
         <v>49.6</v>
@@ -20754,12 +21625,12 @@
         <v>1.7221</v>
       </c>
       <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>-0.4034000000000002</v>
+      </c>
+      <c r="R82">
         <f t="shared" si="4"/>
-        <v>0.4034000000000002</v>
-      </c>
-      <c r="R82">
-        <f t="shared" si="3"/>
-        <v>18.979063749705961</v>
+        <v>-18.979063749705961</v>
       </c>
       <c r="T82" s="18">
         <v>50</v>
@@ -20806,12 +21677,12 @@
         <v>1.3902000000000001</v>
       </c>
       <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>-0.36459999999999981</v>
+      </c>
+      <c r="R83">
         <f t="shared" si="4"/>
-        <v>0.36459999999999981</v>
-      </c>
-      <c r="R83">
-        <f t="shared" si="3"/>
-        <v>20.777296558012299</v>
+        <v>-20.777296558012299</v>
       </c>
       <c r="T83" s="18">
         <v>50</v>
@@ -20858,12 +21729,12 @@
         <v>1.2670999999999999</v>
       </c>
       <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>-0.26540000000000008</v>
+      </c>
+      <c r="R84">
         <f t="shared" si="4"/>
-        <v>0.26540000000000008</v>
-      </c>
-      <c r="R84">
-        <f t="shared" si="3"/>
-        <v>17.318107667210448</v>
+        <v>-17.318107667210448</v>
       </c>
       <c r="T84" s="18">
         <v>50.7</v>
@@ -20910,12 +21781,12 @@
         <v>1.2577</v>
       </c>
       <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>-0.21510000000000007</v>
+      </c>
+      <c r="R85">
         <f t="shared" si="4"/>
-        <v>0.21510000000000007</v>
-      </c>
-      <c r="R85">
-        <f t="shared" si="3"/>
-        <v>14.604834329168934</v>
+        <v>-14.604834329168934</v>
       </c>
       <c r="T85" s="18">
         <v>51.2</v>
@@ -20962,12 +21833,12 @@
         <v>1.1619999999999999</v>
       </c>
       <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>-0.21700000000000008</v>
+      </c>
+      <c r="R86">
         <f t="shared" si="4"/>
-        <v>0.21700000000000008</v>
-      </c>
-      <c r="R86">
-        <f t="shared" si="3"/>
-        <v>15.736040609137062</v>
+        <v>-15.736040609137062</v>
       </c>
       <c r="T86" s="18">
         <v>51.4</v>
@@ -21014,12 +21885,12 @@
         <v>1.4807999999999999</v>
       </c>
       <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>-0.29900000000000015</v>
+      </c>
+      <c r="R87">
         <f t="shared" si="4"/>
-        <v>0.29900000000000015</v>
-      </c>
-      <c r="R87">
-        <f t="shared" si="3"/>
-        <v>16.79964040903473</v>
+        <v>-16.79964040903473</v>
       </c>
       <c r="T87" s="18">
         <v>51.5</v>
@@ -21066,12 +21937,12 @@
         <v>1.0113000000000001</v>
       </c>
       <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>-0.33349999999999991</v>
+      </c>
+      <c r="R88">
         <f t="shared" si="4"/>
-        <v>0.33349999999999991</v>
-      </c>
-      <c r="R88">
-        <f t="shared" si="3"/>
-        <v>24.799226650803085</v>
+        <v>-24.799226650803085</v>
       </c>
       <c r="T88" s="18">
         <v>51.6</v>
@@ -21118,12 +21989,12 @@
         <v>1.7782</v>
       </c>
       <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>-0.33749999999999991</v>
+      </c>
+      <c r="R89">
         <f t="shared" si="4"/>
-        <v>0.33749999999999991</v>
-      </c>
-      <c r="R89">
-        <f t="shared" si="3"/>
-        <v>15.952167131445854</v>
+        <v>-15.952167131445854</v>
       </c>
       <c r="T89" s="18">
         <v>51.8</v>
@@ -21170,12 +22041,12 @@
         <v>0.80369999999999997</v>
       </c>
       <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>-0.17730000000000001</v>
+      </c>
+      <c r="R90">
         <f t="shared" si="4"/>
-        <v>0.17730000000000001</v>
-      </c>
-      <c r="R90">
-        <f t="shared" si="3"/>
-        <v>18.073394495412845</v>
+        <v>-18.073394495412845</v>
       </c>
       <c r="T90" s="18">
         <v>52</v>
@@ -21222,12 +22093,12 @@
         <v>1.6217999999999999</v>
       </c>
       <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>-0.39070000000000027</v>
+      </c>
+      <c r="R91">
         <f t="shared" si="4"/>
-        <v>0.39070000000000027</v>
-      </c>
-      <c r="R91">
-        <f t="shared" si="3"/>
-        <v>19.413664596273303</v>
+        <v>-19.413664596273303</v>
       </c>
       <c r="T91" s="18">
         <v>52.3</v>
@@ -21274,12 +22145,12 @@
         <v>1.2718</v>
       </c>
       <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>-0.32410000000000005</v>
+      </c>
+      <c r="R92">
         <f t="shared" si="4"/>
-        <v>0.32410000000000005</v>
-      </c>
-      <c r="R92">
-        <f t="shared" si="3"/>
-        <v>20.308289993107341</v>
+        <v>-20.308289993107341</v>
       </c>
       <c r="T92" s="18">
         <v>52.6</v>
@@ -21326,12 +22197,12 @@
         <v>1.9995000000000001</v>
       </c>
       <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>-0.46900000000000008</v>
+      </c>
+      <c r="R93">
         <f t="shared" si="4"/>
-        <v>0.46900000000000008</v>
-      </c>
-      <c r="R93">
-        <f t="shared" si="3"/>
-        <v>18.999392343528459</v>
+        <v>-18.999392343528459</v>
       </c>
       <c r="T93" s="18">
         <v>53.4</v>
@@ -21378,12 +22249,12 @@
         <v>1.5115000000000001</v>
       </c>
       <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>-0.3306</v>
+      </c>
+      <c r="R94">
         <f t="shared" si="4"/>
-        <v>0.3306</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="3"/>
-        <v>17.946908419738342</v>
+        <v>-17.946908419738342</v>
       </c>
       <c r="T94" s="18">
         <v>54.5</v>
@@ -21430,12 +22301,12 @@
         <v>1.3117000000000001</v>
       </c>
       <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>-0.23199999999999998</v>
+      </c>
+      <c r="R95">
         <f t="shared" si="4"/>
-        <v>0.23199999999999998</v>
-      </c>
-      <c r="R95">
-        <f t="shared" si="3"/>
-        <v>15.028826844594157</v>
+        <v>-15.028826844594157</v>
       </c>
       <c r="T95" s="18">
         <v>54.7</v>
@@ -21482,12 +22353,12 @@
         <v>1.1697</v>
       </c>
       <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>-0.1552</v>
+      </c>
+      <c r="R96">
         <f t="shared" si="4"/>
-        <v>0.1552</v>
-      </c>
-      <c r="R96">
-        <f t="shared" si="3"/>
-        <v>11.714091629556949</v>
+        <v>-11.714091629556949</v>
       </c>
       <c r="T96" s="18">
         <v>54.8</v>
@@ -21534,12 +22405,12 @@
         <v>0.83919999999999995</v>
       </c>
       <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>-0.11310000000000009</v>
+      </c>
+      <c r="R97">
         <f t="shared" si="4"/>
-        <v>0.11310000000000009</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="3"/>
-        <v>11.876509503307791</v>
+        <v>-11.876509503307791</v>
       </c>
       <c r="T97" s="18">
         <v>55.2</v>
@@ -21586,12 +22457,12 @@
         <v>0.83730000000000004</v>
       </c>
       <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>-0.18719999999999992</v>
+      </c>
+      <c r="R98">
         <f t="shared" si="4"/>
-        <v>0.18719999999999992</v>
-      </c>
-      <c r="R98">
-        <f t="shared" si="3"/>
-        <v>18.272327964860903</v>
+        <v>-18.272327964860903</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="15.75" customHeight="1">
@@ -21632,12 +22503,12 @@
         <v>1.0779000000000001</v>
       </c>
       <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>-0.11339999999999995</v>
+      </c>
+      <c r="R99">
         <f t="shared" si="4"/>
-        <v>0.11339999999999995</v>
-      </c>
-      <c r="R99">
-        <f t="shared" si="3"/>
-        <v>9.5190128431125611</v>
+        <v>-9.5190128431125611</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15.75" customHeight="1">
@@ -21678,12 +22549,12 @@
         <v>1.1718</v>
       </c>
       <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>-0.19280000000000008</v>
+      </c>
+      <c r="R100">
         <f t="shared" si="4"/>
-        <v>0.19280000000000008</v>
-      </c>
-      <c r="R100">
-        <f t="shared" si="3"/>
-        <v>14.128682397772247</v>
+        <v>-14.128682397772247</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15.75" customHeight="1">
@@ -21724,12 +22595,12 @@
         <v>1.3363</v>
       </c>
       <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>-0.36660000000000004</v>
+      </c>
+      <c r="R101">
         <f t="shared" si="4"/>
-        <v>0.36660000000000004</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="3"/>
-        <v>21.527981678313466</v>
+        <v>-21.527981678313466</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15.75" customHeight="1">
@@ -21770,12 +22641,12 @@
         <v>1.5202</v>
       </c>
       <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>-0.19120000000000004</v>
+      </c>
+      <c r="R102">
         <f t="shared" si="4"/>
-        <v>0.19120000000000004</v>
-      </c>
-      <c r="R102">
-        <f t="shared" si="3"/>
-        <v>11.172139768610496</v>
+        <v>-11.172139768610496</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="15.75" customHeight="1">
@@ -21816,12 +22687,12 @@
         <v>1.5628</v>
       </c>
       <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>-0.17310000000000003</v>
+      </c>
+      <c r="R103">
         <f t="shared" si="4"/>
-        <v>0.17310000000000003</v>
-      </c>
-      <c r="R103">
-        <f t="shared" si="3"/>
-        <v>9.9717725675442157</v>
+        <v>-9.9717725675442157</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15.75" customHeight="1">
@@ -21862,12 +22733,12 @@
         <v>1.7659</v>
       </c>
       <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>-0.21910000000000007</v>
+      </c>
+      <c r="R104">
         <f t="shared" si="4"/>
-        <v>0.21910000000000007</v>
-      </c>
-      <c r="R104">
-        <f t="shared" si="3"/>
-        <v>11.037783375314865</v>
+        <v>-11.037783375314865</v>
       </c>
     </row>
     <row r="105" spans="1:21" ht="15.75" customHeight="1">
@@ -21908,12 +22779,12 @@
         <v>1.2685</v>
       </c>
       <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>-0.18290000000000006</v>
+      </c>
+      <c r="R105">
         <f t="shared" si="4"/>
-        <v>0.18290000000000006</v>
-      </c>
-      <c r="R105">
-        <f t="shared" si="3"/>
-        <v>12.601626016260168</v>
+        <v>-12.601626016260168</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="15.75" customHeight="1">
@@ -21954,12 +22825,12 @@
         <v>1.3216000000000001</v>
       </c>
       <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>-0.16049999999999986</v>
+      </c>
+      <c r="R106">
         <f t="shared" si="4"/>
-        <v>0.16049999999999986</v>
-      </c>
-      <c r="R106">
-        <f t="shared" si="3"/>
-        <v>10.829228796977253</v>
+        <v>-10.829228796977253</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="15.75" customHeight="1">
@@ -22000,12 +22871,12 @@
         <v>1.2343</v>
       </c>
       <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>-0.16739999999999999</v>
+      </c>
+      <c r="R107">
         <f t="shared" si="4"/>
-        <v>0.16739999999999999</v>
-      </c>
-      <c r="R107">
-        <f t="shared" si="3"/>
-        <v>11.942641078690162</v>
+        <v>-11.942641078690162</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15.75" customHeight="1">
@@ -22046,12 +22917,12 @@
         <v>1.6716</v>
       </c>
       <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>-0.17589999999999995</v>
+      </c>
+      <c r="R108">
         <f t="shared" si="4"/>
-        <v>0.17589999999999995</v>
-      </c>
-      <c r="R108">
-        <f t="shared" si="3"/>
-        <v>9.5209742895805114</v>
+        <v>-9.5209742895805114</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15.75" customHeight="1">
@@ -22092,12 +22963,12 @@
         <v>1.2122999999999999</v>
       </c>
       <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>-0.24140000000000006</v>
+      </c>
+      <c r="R109">
         <f t="shared" si="4"/>
-        <v>0.24140000000000006</v>
-      </c>
-      <c r="R109">
-        <f t="shared" si="3"/>
-        <v>16.605902180642502</v>
+        <v>-16.605902180642502</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15.75" customHeight="1">
@@ -22138,12 +23009,12 @@
         <v>1.3271999999999999</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="4"/>
-        <v>0.34640000000000004</v>
+        <f t="shared" si="3"/>
+        <v>-0.34640000000000004</v>
       </c>
       <c r="R110">
-        <f t="shared" si="3"/>
-        <v>20.697896749521991</v>
+        <f t="shared" ref="R110:R141" si="5">Q110/N110*100</f>
+        <v>-20.697896749521991</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15.75" customHeight="1">
@@ -22184,12 +23055,12 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="4"/>
-        <v>0.20929999999999993</v>
+        <f t="shared" si="3"/>
+        <v>-0.20929999999999993</v>
       </c>
       <c r="R111">
-        <f t="shared" si="3"/>
-        <v>19.108919930612611</v>
+        <f t="shared" si="5"/>
+        <v>-19.108919930612611</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="15.75" customHeight="1">
@@ -22230,12 +23101,12 @@
         <v>1.0693999999999999</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="4"/>
-        <v>0.21620000000000017</v>
+        <f t="shared" si="3"/>
+        <v>-0.21620000000000017</v>
       </c>
       <c r="R112">
-        <f t="shared" si="3"/>
-        <v>16.817050404480412</v>
+        <f t="shared" si="5"/>
+        <v>-16.817050404480412</v>
       </c>
     </row>
     <row r="113" spans="1:18" ht="15.75" customHeight="1">
@@ -22276,12 +23147,12 @@
         <v>1.4937</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="4"/>
-        <v>0.24360000000000004</v>
+        <f t="shared" si="3"/>
+        <v>-0.24360000000000004</v>
       </c>
       <c r="R113">
-        <f t="shared" si="3"/>
-        <v>14.021757900189952</v>
+        <f t="shared" si="5"/>
+        <v>-14.021757900189952</v>
       </c>
     </row>
     <row r="114" spans="1:18" ht="15.75" customHeight="1">
@@ -22322,12 +23193,12 @@
         <v>1.3593999999999999</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="4"/>
-        <v>8.8999999999999968E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.8999999999999968E-2</v>
       </c>
       <c r="R114">
-        <f t="shared" si="3"/>
-        <v>6.1447114056890344</v>
+        <f t="shared" si="5"/>
+        <v>-6.1447114056890344</v>
       </c>
     </row>
     <row r="115" spans="1:18" ht="15.75" customHeight="1">
@@ -22368,12 +23239,12 @@
         <v>1.3123</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="4"/>
-        <v>7.6799999999999979E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.6799999999999979E-2</v>
       </c>
       <c r="R115">
-        <f t="shared" si="3"/>
-        <v>5.5287596285364611</v>
+        <f t="shared" si="5"/>
+        <v>-5.5287596285364611</v>
       </c>
     </row>
     <row r="116" spans="1:18" ht="15.75" customHeight="1">
@@ -22414,12 +23285,12 @@
         <v>1.9109</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="4"/>
-        <v>0.19699999999999984</v>
+        <f t="shared" si="3"/>
+        <v>-0.19699999999999984</v>
       </c>
       <c r="R116">
-        <f t="shared" si="3"/>
-        <v>9.3457943925233575</v>
+        <f t="shared" si="5"/>
+        <v>-9.3457943925233575</v>
       </c>
     </row>
     <row r="117" spans="1:18" ht="15.75" customHeight="1">
@@ -22460,12 +23331,12 @@
         <v>1.4251</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="4"/>
-        <v>0.16680000000000006</v>
+        <f t="shared" si="3"/>
+        <v>-0.16680000000000006</v>
       </c>
       <c r="R117">
-        <f t="shared" si="3"/>
-        <v>10.47804510333564</v>
+        <f t="shared" si="5"/>
+        <v>-10.47804510333564</v>
       </c>
     </row>
     <row r="118" spans="1:18" ht="15.75" customHeight="1">
@@ -22506,12 +23377,12 @@
         <v>1.1046</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="4"/>
-        <v>0.48730000000000007</v>
+        <f t="shared" si="3"/>
+        <v>-0.48730000000000007</v>
       </c>
       <c r="R118">
-        <f t="shared" si="3"/>
-        <v>30.611219297694582</v>
+        <f t="shared" si="5"/>
+        <v>-30.611219297694582</v>
       </c>
     </row>
     <row r="119" spans="1:18" ht="15.75" customHeight="1">
@@ -22552,12 +23423,12 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="4"/>
-        <v>0.40989999999999993</v>
+        <f t="shared" si="3"/>
+        <v>-0.40989999999999993</v>
       </c>
       <c r="R119">
-        <f t="shared" si="3"/>
-        <v>19.745652488077457</v>
+        <f t="shared" si="5"/>
+        <v>-19.745652488077457</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="15.75" customHeight="1">
@@ -22598,12 +23469,12 @@
         <v>1.2262999999999999</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="4"/>
-        <v>-4.5699999999999852E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.5699999999999852E-2</v>
       </c>
       <c r="R120">
-        <f t="shared" si="3"/>
-        <v>-3.8709130950364092</v>
+        <f t="shared" si="5"/>
+        <v>3.8709130950364092</v>
       </c>
     </row>
     <row r="121" spans="1:18" ht="15.75" customHeight="1">
@@ -22644,12 +23515,12 @@
         <v>1.2470000000000001</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="4"/>
-        <v>-8.3400000000000141E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.3400000000000141E-2</v>
       </c>
       <c r="R121">
-        <f t="shared" si="3"/>
-        <v>-7.1674114816088128</v>
+        <f t="shared" si="5"/>
+        <v>7.1674114816088128</v>
       </c>
     </row>
     <row r="122" spans="1:18" ht="15.75" customHeight="1">
@@ -22690,12 +23561,12 @@
         <v>0.90629999999999999</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="4"/>
-        <v>0.15970000000000006</v>
+        <f t="shared" si="3"/>
+        <v>-0.15970000000000006</v>
       </c>
       <c r="R122">
-        <f t="shared" si="3"/>
-        <v>14.981238273921205</v>
+        <f t="shared" si="5"/>
+        <v>-14.981238273921205</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="15.75" customHeight="1">
@@ -22736,12 +23607,12 @@
         <v>1.4427000000000001</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="4"/>
-        <v>0.25649999999999995</v>
+        <f t="shared" si="3"/>
+        <v>-0.25649999999999995</v>
       </c>
       <c r="R123">
-        <f t="shared" si="3"/>
-        <v>15.095338983050844</v>
+        <f t="shared" si="5"/>
+        <v>-15.095338983050844</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="15.75" customHeight="1">
@@ -22782,12 +23653,12 @@
         <v>1.1578999999999999</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="4"/>
-        <v>0.12870000000000004</v>
+        <f t="shared" si="3"/>
+        <v>-0.12870000000000004</v>
       </c>
       <c r="R124">
-        <f t="shared" si="3"/>
-        <v>10.003108969376655</v>
+        <f t="shared" si="5"/>
+        <v>-10.003108969376655</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="15.75" customHeight="1">
@@ -22828,12 +23699,12 @@
         <v>1.5685</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="4"/>
-        <v>0.50080000000000013</v>
+        <f t="shared" si="3"/>
+        <v>-0.50080000000000013</v>
       </c>
       <c r="R125">
-        <f t="shared" si="3"/>
-        <v>24.201420770308804</v>
+        <f t="shared" si="5"/>
+        <v>-24.201420770308804</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="15.75" customHeight="1">
@@ -22874,12 +23745,12 @@
         <v>1.3837999999999999</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="4"/>
-        <v>0.35150000000000015</v>
+        <f t="shared" si="3"/>
+        <v>-0.35150000000000015</v>
       </c>
       <c r="R126">
-        <f t="shared" si="3"/>
-        <v>20.255863539445638</v>
+        <f t="shared" si="5"/>
+        <v>-20.255863539445638</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="15.75" customHeight="1">
@@ -22920,12 +23791,12 @@
         <v>1.5521</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="4"/>
-        <v>0.19969999999999999</v>
+        <f t="shared" si="3"/>
+        <v>-0.19969999999999999</v>
       </c>
       <c r="R127">
-        <f t="shared" si="3"/>
-        <v>11.399703162461467</v>
+        <f t="shared" si="5"/>
+        <v>-11.399703162461467</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="15.75" customHeight="1">
@@ -22966,12 +23837,12 @@
         <v>1.2807999999999999</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="4"/>
-        <v>0.18500000000000005</v>
+        <f t="shared" si="3"/>
+        <v>-0.18500000000000005</v>
       </c>
       <c r="R128">
-        <f t="shared" si="3"/>
-        <v>12.621094282985403</v>
+        <f t="shared" si="5"/>
+        <v>-12.621094282985403</v>
       </c>
     </row>
     <row r="129" spans="1:18" ht="15.75" customHeight="1">
@@ -23012,12 +23883,12 @@
         <v>1.1393</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="4"/>
-        <v>0.72550000000000003</v>
+        <f t="shared" si="3"/>
+        <v>-0.72550000000000003</v>
       </c>
       <c r="R129">
-        <f t="shared" si="3"/>
-        <v>38.904976404976402</v>
+        <f t="shared" si="5"/>
+        <v>-38.904976404976402</v>
       </c>
     </row>
     <row r="130" spans="1:18" ht="15.75" customHeight="1">
@@ -23058,12 +23929,12 @@
         <v>1.1716</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="4"/>
-        <v>0.33129999999999993</v>
+        <f t="shared" si="3"/>
+        <v>-0.33129999999999993</v>
       </c>
       <c r="R130">
-        <f t="shared" ref="R130:R141" si="5">Q130/N130*100</f>
-        <v>22.04404817353117</v>
+        <f t="shared" si="5"/>
+        <v>-22.04404817353117</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="15.75" customHeight="1">
@@ -23104,12 +23975,12 @@
         <v>1.1733</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="4"/>
-        <v>0.19290000000000007</v>
+        <f t="shared" ref="Q131:Q141" si="6">O131-N131</f>
+        <v>-0.19290000000000007</v>
       </c>
       <c r="R131">
         <f t="shared" si="5"/>
-        <v>14.119455423803254</v>
+        <v>-14.119455423803254</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="15.75" customHeight="1">
@@ -23150,12 +24021,12 @@
         <v>1.2185999999999999</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="4"/>
-        <v>0.14570000000000016</v>
+        <f t="shared" si="6"/>
+        <v>-0.14570000000000016</v>
       </c>
       <c r="R132">
         <f t="shared" si="5"/>
-        <v>10.679469324928546</v>
+        <v>-10.679469324928546</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="15.75" customHeight="1">
@@ -23196,12 +24067,12 @@
         <v>1.2182999999999999</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="4"/>
-        <v>0.17110000000000003</v>
+        <f t="shared" si="6"/>
+        <v>-0.17110000000000003</v>
       </c>
       <c r="R133">
         <f t="shared" si="5"/>
-        <v>12.314668202101629</v>
+        <v>-12.314668202101629</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="15.75" customHeight="1">
@@ -23242,12 +24113,12 @@
         <v>1.4065000000000001</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="4"/>
-        <v>0.20119999999999982</v>
+        <f t="shared" si="6"/>
+        <v>-0.20119999999999982</v>
       </c>
       <c r="R134">
         <f t="shared" si="5"/>
-        <v>12.51477265659015</v>
+        <v>-12.51477265659015</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="15.75" customHeight="1">
@@ -23288,12 +24159,12 @@
         <v>0.63339999999999996</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="4"/>
-        <v>1.0728</v>
+        <f t="shared" si="6"/>
+        <v>-1.0728</v>
       </c>
       <c r="R135">
         <f t="shared" si="5"/>
-        <v>62.876567811510967</v>
+        <v>-62.876567811510967</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="15.75" customHeight="1">
@@ -23334,12 +24205,12 @@
         <v>1.1247</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="4"/>
-        <v>0.39939999999999998</v>
+        <f t="shared" si="6"/>
+        <v>-0.39939999999999998</v>
       </c>
       <c r="R136">
         <f t="shared" si="5"/>
-        <v>26.205629551866672</v>
+        <v>-26.205629551866672</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="15.75" customHeight="1">
@@ -23380,12 +24251,12 @@
         <v>0.76019999999999999</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="4"/>
-        <v>0.20669999999999999</v>
+        <f t="shared" si="6"/>
+        <v>-0.20669999999999999</v>
       </c>
       <c r="R137">
         <f t="shared" si="5"/>
-        <v>21.377598510704313</v>
+        <v>-21.377598510704313</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="15.75" customHeight="1">
@@ -23426,12 +24297,12 @@
         <v>0.9456</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="4"/>
-        <v>0.22009999999999996</v>
+        <f t="shared" si="6"/>
+        <v>-0.22009999999999996</v>
       </c>
       <c r="R138">
         <f t="shared" si="5"/>
-        <v>18.881358840181861</v>
+        <v>-18.881358840181861</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="15.75" customHeight="1">
@@ -23472,12 +24343,12 @@
         <v>1.5125</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="4"/>
-        <v>-0.10699999999999998</v>
+        <f t="shared" si="6"/>
+        <v>0.10699999999999998</v>
       </c>
       <c r="R139">
         <f t="shared" si="5"/>
-        <v>-7.6129491284240469</v>
+        <v>7.6129491284240469</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="15.75" customHeight="1">
@@ -23518,12 +24389,12 @@
         <v>1.4142999999999999</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="4"/>
-        <v>0.38350000000000017</v>
+        <f t="shared" si="6"/>
+        <v>-0.38350000000000017</v>
       </c>
       <c r="R140">
         <f t="shared" si="5"/>
-        <v>21.331627544776961</v>
+        <v>-21.331627544776961</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="15.75" customHeight="1">
@@ -23564,12 +24435,12 @@
         <v>1.0846</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="4"/>
-        <v>0.10909999999999997</v>
+        <f t="shared" si="6"/>
+        <v>-0.10909999999999997</v>
       </c>
       <c r="R141">
         <f t="shared" si="5"/>
-        <v>9.1396498282650569</v>
+        <v>-9.1396498282650569</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="15.75" customHeight="1">
@@ -23599,6 +24470,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AI1:AI141">
+    <sortCondition ref="AI1:AI141"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
@@ -23615,13 +24489,13 @@
   </sheetPr>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="19" max="19" width="12.85546875"/>
+    <col min="19" max="19" width="12.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
@@ -23700,12 +24574,12 @@
         <v>0.38663999999999998</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R65" si="0">N2-O2</f>
-        <v>2.4660000000000015E-2</v>
+        <f>O2-N2</f>
+        <v>-2.4660000000000015E-2</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S65" si="1">R2/N2*100</f>
-        <v>5.995623632385124</v>
+        <f t="shared" ref="S2:S65" si="0">R2/N2*100</f>
+        <v>-5.995623632385124</v>
       </c>
       <c r="U2" s="18">
         <v>28.8</v>
@@ -23752,12 +24626,12 @@
         <v>0.52754000000000001</v>
       </c>
       <c r="R3">
+        <f t="shared" ref="R3:R66" si="1">O3-N3</f>
+        <v>-0.11205999999999994</v>
+      </c>
+      <c r="S3">
         <f t="shared" si="0"/>
-        <v>0.11205999999999994</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="1"/>
-        <v>17.520325203252025</v>
+        <v>-17.520325203252025</v>
       </c>
       <c r="U3" s="18">
         <v>31.9</v>
@@ -23804,11 +24678,11 @@
         <v>0.2286</v>
       </c>
       <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U4" s="18">
@@ -23856,12 +24730,12 @@
         <v>9.3939999999999996E-2</v>
       </c>
       <c r="R5">
+        <f t="shared" si="1"/>
+        <v>-0.16825999999999999</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.16825999999999999</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>64.172387490465297</v>
+        <v>-64.172387490465297</v>
       </c>
       <c r="U5" s="18">
         <v>32.5</v>
@@ -23908,12 +24782,12 @@
         <v>0.39694000000000002</v>
       </c>
       <c r="R6">
+        <f t="shared" si="1"/>
+        <v>-0.10125999999999996</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="0"/>
-        <v>0.10125999999999996</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>20.325170614211153</v>
+        <v>-20.325170614211153</v>
       </c>
       <c r="U6" s="18">
         <v>32.799999999999997</v>
@@ -23960,12 +24834,12 @@
         <v>3.0339999999999999E-2</v>
       </c>
       <c r="R7">
+        <f t="shared" si="1"/>
+        <v>-0.12955999999999998</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="0"/>
-        <v>0.12955999999999998</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>81.025641025641022</v>
+        <v>-81.025641025641022</v>
       </c>
       <c r="U7" s="18">
         <v>33.200000000000003</v>
@@ -24012,12 +24886,12 @@
         <v>0.42393999999999998</v>
       </c>
       <c r="R8">
+        <f t="shared" si="1"/>
+        <v>-0.17906</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="0"/>
-        <v>0.17906</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>29.694859038142617</v>
+        <v>-29.694859038142617</v>
       </c>
       <c r="U8" s="18">
         <v>33.5</v>
@@ -24064,12 +24938,12 @@
         <v>0.23604</v>
       </c>
       <c r="R9">
+        <f t="shared" si="1"/>
+        <v>-0.12236</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="0"/>
-        <v>0.12236</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>34.140625</v>
+        <v>-34.140625</v>
       </c>
       <c r="U9" s="18">
         <v>33.5</v>
@@ -24116,11 +24990,11 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U10" s="18">
@@ -24168,11 +25042,11 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U11" s="18">
@@ -24220,12 +25094,12 @@
         <v>0.26204</v>
       </c>
       <c r="R12">
+        <f t="shared" si="1"/>
+        <v>-5.2659999999999985E-2</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="0"/>
-        <v>5.2659999999999985E-2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>16.733396885923096</v>
+        <v>-16.733396885923096</v>
       </c>
       <c r="U12" s="18">
         <v>34.299999999999997</v>
@@ -24272,12 +25146,12 @@
         <v>0.18593999999999999</v>
       </c>
       <c r="R13">
+        <f t="shared" si="1"/>
+        <v>-9.5760000000000012E-2</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="0"/>
-        <v>9.5760000000000012E-2</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
-        <v>33.993610223642172</v>
+        <v>-33.993610223642172</v>
       </c>
       <c r="U13" s="18">
         <v>34.4</v>
@@ -24324,12 +25198,12 @@
         <v>0.16653999999999999</v>
       </c>
       <c r="R14">
+        <f t="shared" si="1"/>
+        <v>-7.9060000000000019E-2</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="0"/>
-        <v>7.9060000000000019E-2</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="1"/>
-        <v>32.190553745928348</v>
+        <v>-32.190553745928348</v>
       </c>
       <c r="U14" s="18">
         <v>34.4</v>
@@ -24376,11 +25250,11 @@
         <v>0.14860000000000001</v>
       </c>
       <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U15" s="18">
@@ -24428,12 +25302,12 @@
         <v>5.4739999999999997E-2</v>
       </c>
       <c r="R16">
+        <f t="shared" si="1"/>
+        <v>-0.11916</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="0"/>
-        <v>0.11916</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
-        <v>68.522139160437035</v>
+        <v>-68.522139160437035</v>
       </c>
       <c r="U16" s="18">
         <v>35.200000000000003</v>
@@ -24480,12 +25354,12 @@
         <v>2.9159999999999998E-2</v>
       </c>
       <c r="R17">
+        <f t="shared" si="1"/>
+        <v>-7.2739999999999999E-2</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="0"/>
-        <v>7.2739999999999999E-2</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="1"/>
-        <v>71.383709519136403</v>
+        <v>-71.383709519136403</v>
       </c>
       <c r="U17" s="18">
         <v>35.4</v>
@@ -24532,12 +25406,12 @@
         <v>6.0159999999999998E-2</v>
       </c>
       <c r="R18">
+        <f t="shared" si="1"/>
+        <v>-3.0040000000000004E-2</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="0"/>
-        <v>3.0040000000000004E-2</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>33.303769401330378</v>
+        <v>-33.303769401330378</v>
       </c>
       <c r="U18" s="18">
         <v>35.5</v>
@@ -24584,12 +25458,12 @@
         <v>9.3840000000000007E-2</v>
       </c>
       <c r="R19">
+        <f t="shared" si="1"/>
+        <v>-5.915999999999999E-2</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="0"/>
-        <v>5.915999999999999E-2</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="1"/>
-        <v>38.666666666666657</v>
+        <v>-38.666666666666657</v>
       </c>
       <c r="U19" s="18">
         <v>35.799999999999997</v>
@@ -24636,12 +25510,12 @@
         <v>0.13664000000000001</v>
       </c>
       <c r="R20">
+        <f t="shared" si="1"/>
+        <v>-6.7659999999999998E-2</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="0"/>
-        <v>6.7659999999999998E-2</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="1"/>
-        <v>33.117963778756724</v>
+        <v>-33.117963778756724</v>
       </c>
       <c r="U20" s="18">
         <v>36</v>
@@ -24688,12 +25562,12 @@
         <v>0.10934000000000001</v>
       </c>
       <c r="R21">
+        <f t="shared" si="1"/>
+        <v>-3.845999999999998E-2</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="0"/>
-        <v>3.845999999999998E-2</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="1"/>
-        <v>26.02165087956697</v>
+        <v>-26.02165087956697</v>
       </c>
       <c r="U21" s="18">
         <v>36.5</v>
@@ -24740,11 +25614,11 @@
         <v>0.22819999999999999</v>
       </c>
       <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U22" s="18">
@@ -24792,12 +25666,12 @@
         <v>0.11864</v>
       </c>
       <c r="R23">
+        <f t="shared" si="1"/>
+        <v>-0.15125999999999998</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="0"/>
-        <v>0.15125999999999998</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="1"/>
-        <v>56.042978881067064</v>
+        <v>-56.042978881067064</v>
       </c>
       <c r="U23" s="18">
         <v>37</v>
@@ -24844,12 +25718,12 @@
         <v>0.41274</v>
       </c>
       <c r="R24">
+        <f t="shared" si="1"/>
+        <v>-4.2860000000000009E-2</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="0"/>
-        <v>4.2860000000000009E-2</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="1"/>
-        <v>9.4073748902546104</v>
+        <v>-9.4073748902546104</v>
       </c>
       <c r="U24" s="18">
         <v>37</v>
@@ -24896,12 +25770,12 @@
         <v>0.15364</v>
       </c>
       <c r="R25">
+        <f t="shared" si="1"/>
+        <v>-0.11936000000000002</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="0"/>
-        <v>0.11936000000000002</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="1"/>
-        <v>43.721611721611723</v>
+        <v>-43.721611721611723</v>
       </c>
       <c r="U25" s="18">
         <v>37.299999999999997</v>
@@ -24948,12 +25822,12 @@
         <v>0.25734000000000001</v>
       </c>
       <c r="R26">
+        <f t="shared" si="1"/>
+        <v>-5.1259999999999972E-2</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="0"/>
-        <v>5.1259999999999972E-2</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="1"/>
-        <v>16.610499027867782</v>
+        <v>-16.610499027867782</v>
       </c>
       <c r="U26" s="18">
         <v>37.9</v>
@@ -25000,12 +25874,12 @@
         <v>0.12414</v>
       </c>
       <c r="R27">
+        <f t="shared" si="1"/>
+        <v>-3.4560000000000007E-2</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="0"/>
-        <v>3.4560000000000007E-2</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>21.77693761814745</v>
+        <v>-21.77693761814745</v>
       </c>
       <c r="U27" s="18">
         <v>38.700000000000003</v>
@@ -25052,12 +25926,12 @@
         <v>0.11536</v>
       </c>
       <c r="R28">
+        <f t="shared" si="1"/>
+        <v>-1.464E-2</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="0"/>
-        <v>1.464E-2</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="1"/>
-        <v>11.261538461538462</v>
+        <v>-11.261538461538462</v>
       </c>
       <c r="U28" s="18">
         <v>40.799999999999997</v>
@@ -25104,12 +25978,12 @@
         <v>0.17644000000000001</v>
       </c>
       <c r="R29">
+        <f t="shared" si="1"/>
+        <v>-0.10485999999999998</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="0"/>
-        <v>0.10485999999999998</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="1"/>
-        <v>37.276928546036252</v>
+        <v>-37.276928546036252</v>
       </c>
       <c r="U29" s="18">
         <v>41.1</v>
@@ -25156,12 +26030,12 @@
         <v>0.22503999999999999</v>
       </c>
       <c r="R30">
+        <f t="shared" si="1"/>
+        <v>-7.4760000000000021E-2</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="0"/>
-        <v>7.4760000000000021E-2</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="1"/>
-        <v>24.936624416277525</v>
+        <v>-24.936624416277525</v>
       </c>
       <c r="U30" s="18">
         <v>47.2</v>
@@ -25208,12 +26082,12 @@
         <v>0.11796</v>
       </c>
       <c r="R31">
+        <f t="shared" si="1"/>
+        <v>-3.0740000000000003E-2</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="0"/>
-        <v>3.0740000000000003E-2</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="1"/>
-        <v>20.672494956287828</v>
+        <v>-20.672494956287828</v>
       </c>
       <c r="U31" s="18">
         <v>48.8</v>
@@ -25260,12 +26134,12 @@
         <v>0.13164000000000001</v>
       </c>
       <c r="R32">
+        <f t="shared" si="1"/>
+        <v>-7.1459999999999996E-2</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="0"/>
-        <v>7.1459999999999996E-2</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="1"/>
-        <v>35.184638109305759</v>
+        <v>-35.184638109305759</v>
       </c>
       <c r="U32" s="18">
         <v>51</v>
@@ -25312,12 +26186,12 @@
         <v>0.14463999999999999</v>
       </c>
       <c r="R33">
+        <f t="shared" si="1"/>
+        <v>-3.076000000000001E-2</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="0"/>
-        <v>3.076000000000001E-2</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="1"/>
-        <v>17.53705815279362</v>
+        <v>-17.53705815279362</v>
       </c>
       <c r="U33" s="18">
         <v>51</v>
@@ -25364,11 +26238,11 @@
         <v>0.158</v>
       </c>
       <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U34" s="18">
@@ -25416,12 +26290,12 @@
         <v>0.17033999999999999</v>
       </c>
       <c r="R35">
+        <f t="shared" si="1"/>
+        <v>-0.14596000000000003</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="0"/>
-        <v>0.14596000000000003</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="1"/>
-        <v>46.146063863420814</v>
+        <v>-46.146063863420814</v>
       </c>
       <c r="U35" s="18">
         <v>51.8</v>
@@ -25468,11 +26342,11 @@
         <v>0.1681</v>
       </c>
       <c r="R36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U36" s="18">
@@ -25520,11 +26394,11 @@
         <v>0.1207</v>
       </c>
       <c r="R37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U37" s="18">
@@ -25572,12 +26446,12 @@
         <v>0.17843999999999999</v>
       </c>
       <c r="R38">
+        <f t="shared" si="1"/>
+        <v>6.839999999999985E-3</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="0"/>
-        <v>-6.839999999999985E-3</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="1"/>
-        <v>-3.9860139860139774</v>
+        <v>3.9860139860139774</v>
       </c>
       <c r="U38" s="18">
         <v>53</v>
@@ -25624,12 +26498,12 @@
         <v>7.6139999999999999E-2</v>
       </c>
       <c r="R39">
+        <f t="shared" si="1"/>
+        <v>-4.6460000000000001E-2</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="0"/>
-        <v>4.6460000000000001E-2</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="1"/>
-        <v>37.895595432300169</v>
+        <v>-37.895595432300169</v>
       </c>
       <c r="U39" s="18">
         <v>53.6</v>
@@ -25676,12 +26550,12 @@
         <v>0.11414000000000001</v>
       </c>
       <c r="R40">
+        <f t="shared" si="1"/>
+        <v>-2.0959999999999993E-2</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="0"/>
-        <v>2.0959999999999993E-2</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="1"/>
-        <v>15.514433752775716</v>
+        <v>-15.514433752775716</v>
       </c>
       <c r="U40" s="18">
         <v>53.9</v>
@@ -25728,12 +26602,12 @@
         <v>9.9540000000000003E-2</v>
       </c>
       <c r="R41">
+        <f t="shared" si="1"/>
+        <v>-0.10096000000000001</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="0"/>
-        <v>0.10096000000000001</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="1"/>
-        <v>50.354114713216958</v>
+        <v>-50.354114713216958</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1">
@@ -25774,12 +26648,12 @@
         <v>0.15464</v>
       </c>
       <c r="R42">
+        <f t="shared" si="1"/>
+        <v>-1.2559999999999988E-2</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="0"/>
-        <v>1.2559999999999988E-2</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="1"/>
-        <v>7.5119617224880324</v>
+        <v>-7.5119617224880324</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1">
@@ -25820,12 +26694,12 @@
         <v>9.6600000000000005E-2</v>
       </c>
       <c r="R43">
+        <f t="shared" si="1"/>
+        <v>-2.339999999999999E-2</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="0"/>
-        <v>2.339999999999999E-2</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="1"/>
-        <v>19.499999999999993</v>
+        <v>-19.499999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1">
@@ -25866,12 +26740,12 @@
         <v>4.7039999999999998E-2</v>
       </c>
       <c r="R44">
+        <f t="shared" si="1"/>
+        <v>-3.1660000000000008E-2</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="0"/>
-        <v>3.1660000000000008E-2</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="1"/>
-        <v>40.228716645489207</v>
+        <v>-40.228716645489207</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1">
@@ -25912,12 +26786,12 @@
         <v>0.16364000000000001</v>
       </c>
       <c r="R45">
+        <f t="shared" si="1"/>
+        <v>-8.4599999999999953E-3</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="0"/>
-        <v>8.4599999999999953E-3</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="1"/>
-        <v>4.9157466589192307</v>
+        <v>-4.9157466589192307</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1">
@@ -25958,12 +26832,12 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="R46">
+        <f t="shared" si="1"/>
+        <v>-2.52E-2</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="0"/>
-        <v>2.52E-2</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="1"/>
-        <v>25.403225806451612</v>
+        <v>-25.403225806451612</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1">
@@ -26004,12 +26878,12 @@
         <v>0.10014000000000001</v>
       </c>
       <c r="R47">
+        <f t="shared" si="1"/>
+        <v>-3.3159999999999995E-2</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="0"/>
-        <v>3.3159999999999995E-2</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="1"/>
-        <v>24.876219054763688</v>
+        <v>-24.876219054763688</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1">
@@ -26050,11 +26924,11 @@
         <v>0.1903</v>
       </c>
       <c r="R48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -26096,11 +26970,11 @@
         <v>0.2417</v>
       </c>
       <c r="R49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -26142,12 +27016,12 @@
         <v>0.23904</v>
       </c>
       <c r="R50">
+        <f t="shared" si="1"/>
+        <v>-5.6859999999999994E-2</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="0"/>
-        <v>5.6859999999999994E-2</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="1"/>
-        <v>19.215951334910443</v>
+        <v>-19.215951334910443</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1">
@@ -26188,11 +27062,11 @@
         <v>0.28570000000000001</v>
       </c>
       <c r="R51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -26234,12 +27108,12 @@
         <v>0.11294</v>
       </c>
       <c r="R52">
+        <f t="shared" si="1"/>
+        <v>-0.12006000000000001</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="0"/>
-        <v>0.12006000000000001</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="1"/>
-        <v>51.527896995708154</v>
+        <v>-51.527896995708154</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1">
@@ -26280,12 +27154,12 @@
         <v>0.10340000000000001</v>
       </c>
       <c r="R53">
+        <f t="shared" si="1"/>
+        <v>-4.0599999999999983E-2</v>
+      </c>
+      <c r="S53">
         <f t="shared" si="0"/>
-        <v>4.0599999999999983E-2</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="1"/>
-        <v>28.194444444444432</v>
+        <v>-28.194444444444432</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1">
@@ -26326,12 +27200,12 @@
         <v>0.18484</v>
       </c>
       <c r="R54">
+        <f t="shared" si="1"/>
+        <v>-0.11715999999999999</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="0"/>
-        <v>0.11715999999999999</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="1"/>
-        <v>38.794701986754966</v>
+        <v>-38.794701986754966</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1">
@@ -26372,12 +27246,12 @@
         <v>0.15923999999999999</v>
       </c>
       <c r="R55">
+        <f t="shared" si="1"/>
+        <v>-9.2859999999999998E-2</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="0"/>
-        <v>9.2859999999999998E-2</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="1"/>
-        <v>36.83458944863149</v>
+        <v>-36.83458944863149</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.75" customHeight="1">
@@ -26418,12 +27292,12 @@
         <v>0.29824000000000001</v>
       </c>
       <c r="R56">
+        <f t="shared" si="1"/>
+        <v>-1.8560000000000021E-2</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="0"/>
-        <v>1.8560000000000021E-2</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="1"/>
-        <v>5.8585858585858643</v>
+        <v>-5.8585858585858643</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1">
@@ -26464,12 +27338,12 @@
         <v>0.28704000000000002</v>
       </c>
       <c r="R57">
+        <f t="shared" si="1"/>
+        <v>-1.5959999999999974E-2</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="0"/>
-        <v>1.5959999999999974E-2</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="1"/>
-        <v>5.2673267326732587</v>
+        <v>-5.2673267326732587</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.75" customHeight="1">
@@ -26510,12 +27384,12 @@
         <v>0.11196</v>
       </c>
       <c r="R58">
+        <f t="shared" si="1"/>
+        <v>-3.8440000000000002E-2</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="0"/>
-        <v>3.8440000000000002E-2</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="1"/>
-        <v>25.558510638297872</v>
+        <v>-25.558510638297872</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1">
@@ -26556,12 +27430,12 @@
         <v>0.13925999999999999</v>
       </c>
       <c r="R59">
+        <f t="shared" si="1"/>
+        <v>-3.2840000000000008E-2</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="0"/>
-        <v>3.2840000000000008E-2</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="1"/>
-        <v>19.081929110981992</v>
+        <v>-19.081929110981992</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1">
@@ -26602,12 +27476,12 @@
         <v>0.17054</v>
       </c>
       <c r="R60">
+        <f t="shared" si="1"/>
+        <v>-0.10966000000000001</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="0"/>
-        <v>0.10966000000000001</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="1"/>
-        <v>39.136331192005713</v>
+        <v>-39.136331192005713</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1">
@@ -26648,12 +27522,12 @@
         <v>0.11206000000000001</v>
       </c>
       <c r="R61">
+        <f t="shared" si="1"/>
+        <v>-4.6439999999999995E-2</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="0"/>
-        <v>4.6439999999999995E-2</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="1"/>
-        <v>29.299684542586746</v>
+        <v>-29.299684542586746</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="15.75" customHeight="1">
@@ -26694,12 +27568,12 @@
         <v>0.11636000000000001</v>
       </c>
       <c r="R62">
+        <f t="shared" si="1"/>
+        <v>-4.2540000000000008E-2</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="0"/>
-        <v>4.2540000000000008E-2</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="1"/>
-        <v>26.771554436752677</v>
+        <v>-26.771554436752677</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="15.75" customHeight="1">
@@ -26740,12 +27614,12 @@
         <v>0.29643999999999998</v>
       </c>
       <c r="R63">
+        <f t="shared" si="1"/>
+        <v>-1.3759999999999994E-2</v>
+      </c>
+      <c r="S63">
         <f t="shared" si="0"/>
-        <v>1.3759999999999994E-2</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="1"/>
-        <v>4.4358478401031576</v>
+        <v>-4.4358478401031576</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.75" customHeight="1">
@@ -26786,12 +27660,12 @@
         <v>0.11194</v>
       </c>
       <c r="R64">
+        <f t="shared" si="1"/>
+        <v>-0.21566000000000002</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="0"/>
-        <v>0.21566000000000002</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="1"/>
-        <v>65.830280830280842</v>
+        <v>-65.830280830280842</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15.75" customHeight="1">
@@ -26832,12 +27706,12 @@
         <v>0.16444</v>
       </c>
       <c r="R65">
+        <f t="shared" si="1"/>
+        <v>-0.13465999999999997</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="0"/>
-        <v>0.13465999999999997</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="1"/>
-        <v>45.021731862253425</v>
+        <v>-45.021731862253425</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.75" customHeight="1">
@@ -26878,12 +27752,12 @@
         <v>0.17954000000000001</v>
       </c>
       <c r="R66">
-        <f t="shared" ref="R66:R81" si="2">N66-O66</f>
-        <v>0.11026</v>
+        <f t="shared" si="1"/>
+        <v>-0.11026</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S81" si="3">R66/N66*100</f>
-        <v>38.046928916494132</v>
+        <f t="shared" ref="S66:S81" si="2">R66/N66*100</f>
+        <v>-38.046928916494132</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.75" customHeight="1">
@@ -26924,12 +27798,12 @@
         <v>0.19894000000000001</v>
       </c>
       <c r="R67">
+        <f t="shared" ref="R67:R81" si="3">O67-N67</f>
+        <v>-0.10515999999999998</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="2"/>
-        <v>0.10515999999999998</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="3"/>
-        <v>34.580730023018738</v>
+        <v>-34.580730023018738</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15.75" customHeight="1">
@@ -26970,12 +27844,12 @@
         <v>0.37703999999999999</v>
       </c>
       <c r="R68">
+        <f t="shared" si="3"/>
+        <v>-2.3859999999999992E-2</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="2"/>
-        <v>2.3859999999999992E-2</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="3"/>
-        <v>5.9516088800199531</v>
+        <v>-5.9516088800199531</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.75" customHeight="1">
@@ -27016,12 +27890,12 @@
         <v>0.13864000000000001</v>
       </c>
       <c r="R69">
+        <f t="shared" si="3"/>
+        <v>-9.6159999999999995E-2</v>
+      </c>
+      <c r="S69">
         <f t="shared" si="2"/>
-        <v>9.6159999999999995E-2</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="3"/>
-        <v>40.954003407155021</v>
+        <v>-40.954003407155021</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.75" customHeight="1">
@@ -27062,12 +27936,12 @@
         <v>0.11574</v>
       </c>
       <c r="R70">
+        <f t="shared" si="3"/>
+        <v>-7.5659999999999991E-2</v>
+      </c>
+      <c r="S70">
         <f t="shared" si="2"/>
-        <v>7.5659999999999991E-2</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="3"/>
-        <v>39.529780564263319</v>
+        <v>-39.529780564263319</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="15.75" customHeight="1">
@@ -27108,12 +27982,12 @@
         <v>0.11033999999999999</v>
       </c>
       <c r="R71">
+        <f t="shared" si="3"/>
+        <v>-0.17756</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="2"/>
-        <v>0.17756</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="3"/>
-        <v>61.674192427926364</v>
+        <v>-61.674192427926364</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15.75" customHeight="1">
@@ -27154,12 +28028,12 @@
         <v>0.15440000000000001</v>
       </c>
       <c r="R72">
+        <f t="shared" si="3"/>
+        <v>-7.1300000000000002E-2</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="2"/>
-        <v>7.1300000000000002E-2</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="3"/>
-        <v>31.590607000443065</v>
+        <v>-31.590607000443065</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="15.75" customHeight="1">
@@ -27200,12 +28074,12 @@
         <v>0.15834000000000001</v>
       </c>
       <c r="R73">
+        <f t="shared" si="3"/>
+        <v>-4.3259999999999993E-2</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="2"/>
-        <v>4.3259999999999993E-2</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="3"/>
-        <v>21.458333333333329</v>
+        <v>-21.458333333333329</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="15.75" customHeight="1">
@@ -27246,12 +28120,12 @@
         <v>0.21154000000000001</v>
       </c>
       <c r="R74">
+        <f t="shared" si="3"/>
+        <v>-0.16105999999999998</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="2"/>
-        <v>0.16105999999999998</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="3"/>
-        <v>43.225979602791192</v>
+        <v>-43.225979602791192</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.75" customHeight="1">
@@ -27292,12 +28166,12 @@
         <v>0.21640000000000001</v>
       </c>
       <c r="R75">
+        <f t="shared" si="3"/>
+        <v>-9.6599999999999991E-2</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="2"/>
-        <v>9.6599999999999991E-2</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="3"/>
-        <v>30.862619808306707</v>
+        <v>-30.862619808306707</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15.75" customHeight="1">
@@ -27338,12 +28212,12 @@
         <v>0.13764000000000001</v>
       </c>
       <c r="R76">
+        <f t="shared" si="3"/>
+        <v>-5.1559999999999995E-2</v>
+      </c>
+      <c r="S76">
         <f t="shared" si="2"/>
-        <v>5.1559999999999995E-2</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="3"/>
-        <v>27.251585623678643</v>
+        <v>-27.251585623678643</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15.75" customHeight="1">
@@ -27384,12 +28258,12 @@
         <v>0.21504000000000001</v>
       </c>
       <c r="R77">
+        <f t="shared" si="3"/>
+        <v>-0.22565999999999997</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="2"/>
-        <v>0.22565999999999997</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="3"/>
-        <v>51.204901293396865</v>
+        <v>-51.204901293396865</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.75" customHeight="1">
@@ -27430,12 +28304,12 @@
         <v>0.16664000000000001</v>
       </c>
       <c r="R78">
+        <f t="shared" si="3"/>
+        <v>-0.18135999999999997</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="2"/>
-        <v>0.18135999999999997</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="3"/>
-        <v>52.114942528735632</v>
+        <v>-52.114942528735632</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.75" customHeight="1">
@@ -27476,12 +28350,12 @@
         <v>0.12714</v>
       </c>
       <c r="R79">
+        <f t="shared" si="3"/>
+        <v>-4.9059999999999993E-2</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="2"/>
-        <v>4.9059999999999993E-2</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="3"/>
-        <v>27.843359818388191</v>
+        <v>-27.843359818388191</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15.75" customHeight="1">
@@ -27522,12 +28396,12 @@
         <v>0.19494</v>
       </c>
       <c r="R80">
+        <f t="shared" si="3"/>
+        <v>-2.7060000000000001E-2</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="2"/>
-        <v>2.7060000000000001E-2</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="3"/>
-        <v>12.189189189189189</v>
+        <v>-12.189189189189189</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15.75" customHeight="1">
@@ -27568,12 +28442,12 @@
         <v>0.29483999999999999</v>
       </c>
       <c r="R81">
+        <f t="shared" si="3"/>
+        <v>-9.486E-2</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="2"/>
-        <v>9.486E-2</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="3"/>
-        <v>24.341801385681293</v>
+        <v>-24.341801385681293</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.75" customHeight="1">

--- a/Data/One_month_LWR_data/Fish_data_LW_before&after.xlsx
+++ b/Data/One_month_LWR_data/Fish_data_LW_before&after.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\AlbatrossPhillipinesLWR\Data\One_month_LWR_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE633A7-AA69-45B7-AC64-871E67B767AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDF910D-9DE4-4C77-AD0F-0890E47B03BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="674" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerres oyena" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="27">
   <si>
     <t>Before 1 month</t>
   </si>
@@ -97,12 +97,33 @@
   <si>
     <t>wt_g_match</t>
   </si>
+  <si>
+    <t>Mass_g</t>
+  </si>
+  <si>
+    <t>SL_mm</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Cagayan_de_Jolo</t>
+  </si>
+  <si>
+    <t>Jamelo_Cove_Luzon</t>
+  </si>
+  <si>
+    <t>Sacol_Island_Zamboanga</t>
+  </si>
+  <si>
+    <t>Mansalay_Mindoro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -137,6 +158,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -244,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -282,6 +324,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3601,7 +3646,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>. Historical collections were collected in ~1908 (orange), contemporary collections were measured fresh (blue) and after 1 month of preservation in EtOH (red) </a:t>
+              <a:t>. Historical collections were collected in ~1908 from 3 different sites, contemporary collections were measured fresh (blue) and after 1 month of preservation in EtOH (red) </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5549,11 +5594,640 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$T$2:$T$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>55.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$U$2:$U$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.073</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.194</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.196</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.117</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.498</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.581</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86BF-427B-A651-AA16B786D49F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Albatross Sulu Sea</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -5565,8 +6239,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.5427701523380678"/>
-                  <c:y val="0.35732057850301019"/>
+                  <c:x val="-0.40825631140613639"/>
+                  <c:y val="0.27355229724324898"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5601,594 +6275,246 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Spratelloides delicatulus'!$T$2:$T$97</c:f>
+              <c:f>'Spratelloides delicatulus'!$X$2:$X$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>33.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>38.700000000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>38.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>39.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="35">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>39.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43.8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44.1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44.6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44.6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44.6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45.7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>46.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>46.8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>47.3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>47.6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>47.7</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>47.8</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>48.1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>48.7</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>48.8</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>48.8</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>48.8</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>49.2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>49.3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>49.4</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>49.6</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>49.6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>50.7</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>51.4</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>51.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>51.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>52.3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>53.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>54.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>54.7</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>54.8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>55.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Spratelloides delicatulus'!$U$2:$U$97</c:f>
+              <c:f>'Spratelloides delicatulus'!$W$2:$W$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.313</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="25">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="35">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.66700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.68100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.67200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.79800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.74099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.63100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.55700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.64900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.65100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.72799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.82899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.82299999999999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.89500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.88400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.83799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.97799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.014</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.73599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.94399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.022</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.72899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.83099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.079</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.171</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.073</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.89500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.105</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.82899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.079</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.018</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.0589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.0389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.96599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.21</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.194</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.0589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.196</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.117</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.222</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.0469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.171</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.2330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.0669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.1779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.3089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.98899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.208</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.282</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.004</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.171</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.3759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.4410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.498</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.421</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.6459999999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.3620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.3140000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.581</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.4530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.4319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.7430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6196,7 +6522,573 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-86BF-427B-A651-AA16B786D49F}"/>
+              <c16:uniqueId val="{00000003-0BBF-43F8-BDF2-C79CB22FA846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Albatross Luzon</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.3934277554098547"/>
+                  <c:y val="0.2110947234414402"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$X$40:$X$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$W$40:$W$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0BBF-43F8-BDF2-C79CB22FA846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Albatross Mindoro</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.67645995284416371"/>
+                  <c:y val="0.31833366231888238"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$X$94:$X$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$W$94:$W$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.073</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.194</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0BBF-43F8-BDF2-C79CB22FA846}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6215,7 +7107,7 @@
         <c:axId val="626288410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="30"/>
+          <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6456,6 +7348,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6523,6 +7427,2949 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Contemporary Fresh</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3252207827477645E-2"/>
+                  <c:y val="-0.14495253283810525"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$M$2:$M$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="140"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$N$2:$N$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="140"/>
+                <c:pt idx="0">
+                  <c:v>1.1254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6948000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6662999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5946</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0954000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7365999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4724999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.879</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2587999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4317</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4987999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7582</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3647999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6753</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1042000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6721999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0116000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2871999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9235</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.1331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6861999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8241000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2977000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.7075</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9642999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2467999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1101000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7904</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6015999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.1600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.1322000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4113</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4581999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4659</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8241000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7882</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.429</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.7866</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.7175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.93820000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4037999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0077</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.8714999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.73709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2292000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.3958999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.1383999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.8046</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4628000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.1297999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4479</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3369</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4273</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1255000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7547999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5325</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4728000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.379</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.3448</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.1156999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.0125000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5959000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.4685000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8421000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.5437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.3249</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0245</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.1913</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3646</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7029000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7114</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7359</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.9850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4514</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4821</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4016999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8474999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4537</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6736</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0952999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.2856000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7373000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4483999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3891</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.1078999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5919000000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.5919000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0758999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.1636</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6992</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2866</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.0693000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7518</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4658</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.8648</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.5028999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.3662000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.3643000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3894</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.6076999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.7061999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.5241</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.96689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1657</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4055</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.7978000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB27-4701-8337-4F8BCA88B459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Contemporary Preserved</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3252207827477645E-2"/>
+                  <c:y val="0.16719467302740418"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$M$2:$M$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="140"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$O$2:$O$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="140"/>
+                <c:pt idx="2">
+                  <c:v>1.0911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5477000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7896000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2998000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4898</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0631699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4842</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2495000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4061999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7356</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2879</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4765999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1315</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5427999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.784</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.573</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5133000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0630999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2751999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1073</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.88990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1428</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7403999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4016</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.84889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88970000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1393</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4893000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.2488999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1138999999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4816</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4691000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4235</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.30380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0936999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.484</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5266</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.58650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0224000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4919</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.71819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.95309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.79430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8528</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4177</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6286</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.2701</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0482</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2418</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0387999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4098999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7221</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2577</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4807999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0113000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7782</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.80369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.6217999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2718</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9995000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5115000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3117000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1697</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.83919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.83730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0779000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.1718</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3363</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5202</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.5628</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7659</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.2685</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.2343</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.6716</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.2122999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3271999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.4937</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.3593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3123</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.9109</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4251</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1046</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.6659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2262999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.2470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.90629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4427000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.1578999999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5685</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.3837999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.5521</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2807999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1393</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1716</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1733</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.2185999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2182999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4065000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.63339999999999996</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.1247</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.76019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.9456</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5125</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.4142999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.0846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB27-4701-8337-4F8BCA88B459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Historical Preserved</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28765324451731222"/>
+                  <c:y val="0.36794265841031543"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$T$2:$T$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>55.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spratelloides delicatulus'!$U$2:$U$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0.313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.073</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.194</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.196</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.117</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.222</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.2330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.171</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.498</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.581</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB27-4701-8337-4F8BCA88B459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="31272368"/>
+        <c:axId val="31273808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="31272368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Standard</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Length (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31273808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31273808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Weight (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0645181839822703E-2"/>
+              <c:y val="0.27107091558973478"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31272368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21282117854736016"/>
+          <c:y val="0.15349624612699175"/>
+          <c:w val="0.26726405415463844"/>
+          <c:h val="0.17859426936217293"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8585,6 +12432,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10688,6 +14575,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10733,16 +15136,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>800445</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>77874</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>847183</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>188245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>796635</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>847183</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>46325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10774,16 +15177,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>446859</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27446</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>334709</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>474344</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10808,6 +15211,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>20262</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB49203-5187-3819-F9F6-7954AA3182AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10815,16 +15254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>305462</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106333</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47278</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>668021</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>141217</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>782321</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11062,18 +15501,18 @@
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="15"/>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -11196,7 +15635,7 @@
         <v>-2.8817000000000004</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q2:Q63" si="1">P3/M3*100</f>
+        <f t="shared" ref="Q3:Q63" si="1">P3/M3*100</f>
         <v>-19.976153670185852</v>
       </c>
       <c r="S3" s="18">
@@ -14226,25 +18665,25 @@
   </sheetPr>
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
       <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14364,7 +18803,7 @@
         <v>3.5998000000000001</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R2:R65" si="1">Q3/N3*100</f>
+        <f t="shared" ref="R3:R65" si="1">Q3/N3*100</f>
         <v>47.832152965093876</v>
       </c>
       <c r="T3" s="18">
@@ -17423,27 +21862,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:Y142"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM47" sqref="AM47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
       <c r="L1" t="s">
         <v>11</v>
       </c>
@@ -17468,8 +21907,17 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -17508,8 +21956,17 @@
       <c r="U2" s="18">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W2" s="20">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="X2" s="20">
+        <v>54.7</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -17557,8 +22014,17 @@
       <c r="U3" s="18">
         <v>0.36199999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W3" s="20">
+        <v>1.004</v>
+      </c>
+      <c r="X3" s="20">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -17609,8 +22075,17 @@
       <c r="U4" s="18">
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W4" s="20">
+        <v>1.117</v>
+      </c>
+      <c r="X4" s="20">
+        <v>48.2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17661,8 +22136,17 @@
       <c r="U5" s="18">
         <v>0.34499999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W5" s="20">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="X5" s="20">
+        <v>41.9</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17713,8 +22197,17 @@
       <c r="U6" s="18">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W6" s="20">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="X6" s="20">
+        <v>52</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -17765,8 +22258,17 @@
       <c r="U7" s="18">
         <v>0.67200000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W7" s="20">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="X7" s="20">
+        <v>47.8</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -17817,8 +22319,17 @@
       <c r="U8" s="18">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W8" s="20">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="X8" s="20">
+        <v>49</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -17866,8 +22377,17 @@
       <c r="U9" s="18">
         <v>0.71899999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W9" s="20">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="X9" s="20">
+        <v>41.2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -17918,8 +22438,17 @@
       <c r="U10" s="18">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W10" s="20">
+        <v>1.171</v>
+      </c>
+      <c r="X10" s="20">
+        <v>50</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -17967,8 +22496,17 @@
       <c r="U11" s="18">
         <v>0.66700000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W11" s="20">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="X11" s="20">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18019,8 +22557,17 @@
       <c r="U12" s="18">
         <v>0.53600000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W12" s="20">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="X12" s="20">
+        <v>44.6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18071,8 +22618,17 @@
       <c r="U13" s="18">
         <v>0.68100000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W13" s="20">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="X13" s="20">
+        <v>48.8</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18120,8 +22676,17 @@
       <c r="U14" s="18">
         <v>0.67200000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W14" s="20">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="X14" s="20">
+        <v>48</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18172,8 +22737,17 @@
       <c r="U15" s="18">
         <v>0.79800000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W15" s="20">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="X15" s="20">
+        <v>41.5</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -18224,8 +22798,17 @@
       <c r="U16" s="18">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W16" s="20">
+        <v>1.171</v>
+      </c>
+      <c r="X16" s="20">
+        <v>48.8</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -18276,8 +22859,17 @@
       <c r="U17" s="18">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W17" s="20">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="X17" s="20">
+        <v>47.6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -18328,8 +22920,17 @@
       <c r="U18" s="18">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W18" s="20">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="X18" s="20">
+        <v>45.7</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -18377,8 +22978,17 @@
       <c r="U19" s="18">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W19" s="20">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="X19" s="20">
+        <v>44.4</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -18429,8 +23039,17 @@
       <c r="U20" s="18">
         <v>0.64900000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W20" s="20">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="X20" s="20">
+        <v>47.4</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -18481,8 +23100,17 @@
       <c r="U21" s="18">
         <v>0.65100000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W21" s="20">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="X21" s="20">
+        <v>41.2</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -18533,8 +23161,17 @@
       <c r="U22" s="18">
         <v>0.71299999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W22" s="20">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="X22" s="20">
+        <v>47.4</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -18585,8 +23222,17 @@
       <c r="U23" s="18">
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W23" s="20">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="X23" s="20">
+        <v>45.5</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -18637,8 +23283,17 @@
       <c r="U24" s="18">
         <v>0.66200000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W24" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="X24" s="20">
+        <v>47</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -18686,8 +23341,17 @@
       <c r="U25" s="18">
         <v>0.72799999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W25" s="20">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="X25" s="20">
+        <v>29.6</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -18735,8 +23399,17 @@
       <c r="U26" s="18">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W26" s="20">
+        <v>0.313</v>
+      </c>
+      <c r="X26" s="20">
+        <v>33.5</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -18787,8 +23460,17 @@
       <c r="U27" s="18">
         <v>0.82299999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W27" s="20">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="X27" s="20">
+        <v>49.4</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -18839,8 +23521,17 @@
       <c r="U28" s="18">
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W28" s="20">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="X28" s="20">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -18891,8 +23582,17 @@
       <c r="U29" s="18">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W29" s="20">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="X29" s="20">
+        <v>45.8</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -18940,8 +23640,17 @@
       <c r="U30" s="18">
         <v>0.83799999999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W30" s="20">
+        <v>0.46</v>
+      </c>
+      <c r="X30" s="20">
+        <v>39.1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -18992,8 +23701,17 @@
       <c r="U31" s="18">
         <v>0.76800000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W31" s="20">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="X31" s="20">
+        <v>42.1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -19044,8 +23762,17 @@
       <c r="U32" s="18">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W32" s="20">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="X32" s="20">
+        <v>44.6</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -19096,8 +23823,17 @@
       <c r="U33" s="18">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W33" s="20">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="X33" s="20">
+        <v>44.5</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -19148,8 +23884,17 @@
       <c r="U34" s="18">
         <v>0.97799999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W34" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="X34" s="20">
+        <v>49</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -19200,8 +23945,17 @@
       <c r="U35" s="18">
         <v>1.014</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W35" s="20">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="X35" s="20">
+        <v>43.5</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -19252,8 +24006,17 @@
       <c r="U36" s="18">
         <v>0.73599999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W36" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="X36" s="20">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -19304,8 +24067,17 @@
       <c r="U37" s="18">
         <v>0.98399999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W37" s="20">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="X37" s="20">
+        <v>44.1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -19356,8 +24128,17 @@
       <c r="U38" s="18">
         <v>0.78100000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W38" s="20">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="X38" s="20">
+        <v>42</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -19408,8 +24189,17 @@
       <c r="U39" s="18">
         <v>0.94399999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W39" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="X39" s="20">
+        <v>39.5</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -19460,8 +24250,17 @@
       <c r="U40" s="18">
         <v>1.022</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W40" s="20">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="X40" s="20">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -19509,8 +24308,17 @@
       <c r="U41" s="18">
         <v>0.72499999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W41" s="20">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="X41" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -19561,8 +24369,17 @@
       <c r="U42" s="18">
         <v>0.72899999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W42" s="20">
+        <v>1.171</v>
+      </c>
+      <c r="X42" s="20">
+        <v>45.5</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -19613,8 +24430,17 @@
       <c r="U43" s="18">
         <v>0.83099999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W43" s="20">
+        <v>1.079</v>
+      </c>
+      <c r="X43" s="20">
+        <v>45.2</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -19665,8 +24491,17 @@
       <c r="U44" s="18">
         <v>0.71399999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W44" s="20">
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="X44" s="20">
+        <v>51.6</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -19714,8 +24549,17 @@
       <c r="U45" s="18">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W45" s="20">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="X45" s="20">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -19766,8 +24610,17 @@
       <c r="U46" s="18">
         <v>1.079</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W46" s="20">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="X46" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -19818,8 +24671,17 @@
       <c r="U47" s="18">
         <v>0.86899999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W47" s="20">
+        <v>1.196</v>
+      </c>
+      <c r="X47" s="20">
+        <v>48.1</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -19870,8 +24732,17 @@
       <c r="U48" s="18">
         <v>1.171</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W48" s="20">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="X48" s="20">
+        <v>43.8</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -19922,8 +24793,17 @@
       <c r="U49" s="18">
         <v>1.073</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W49" s="20">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="X49" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -19974,8 +24854,17 @@
       <c r="U50" s="18">
         <v>0.89500000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W50" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="X50" s="20">
+        <v>43.2</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -20026,8 +24915,17 @@
       <c r="U51" s="18">
         <v>1.105</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W51" s="20">
+        <v>1.022</v>
+      </c>
+      <c r="X51" s="20">
+        <v>44.3</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -20078,8 +24976,17 @@
       <c r="U52" s="18">
         <v>0.82899999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W52" s="20">
+        <v>1.54</v>
+      </c>
+      <c r="X52" s="20">
+        <v>52.3</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -20130,8 +25037,17 @@
       <c r="U53" s="18">
         <v>0.97699999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W53" s="20">
+        <v>1.014</v>
+      </c>
+      <c r="X53" s="20">
+        <v>43.3</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -20182,8 +25098,17 @@
       <c r="U54" s="18">
         <v>1.079</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W54" s="20">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="X54" s="20">
+        <v>50.7</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -20234,8 +25159,17 @@
       <c r="U55" s="18">
         <v>0.93799999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W55" s="20">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="X55" s="20">
+        <v>44.2</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -20286,8 +25220,17 @@
       <c r="U56" s="18">
         <v>1.018</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W56" s="20">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="X56" s="20">
+        <v>42.2</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -20338,8 +25281,17 @@
       <c r="U57" s="18">
         <v>1.0589999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W57" s="20">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="X57" s="20">
+        <v>39.6</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -20390,8 +25342,17 @@
       <c r="U58" s="18">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W58" s="20">
+        <v>1.105</v>
+      </c>
+      <c r="X58" s="20">
+        <v>45.7</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -20442,8 +25403,17 @@
       <c r="U59" s="18">
         <v>1.1759999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W59" s="20">
+        <v>1.21</v>
+      </c>
+      <c r="X59" s="20">
+        <v>47.6</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -20494,8 +25464,17 @@
       <c r="U60" s="18">
         <v>1.0389999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W60" s="20">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="X60" s="20">
+        <v>47.3</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -20546,8 +25525,17 @@
       <c r="U61" s="18">
         <v>0.97599999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W61" s="20">
+        <v>1.079</v>
+      </c>
+      <c r="X61" s="20">
+        <v>46</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -20598,8 +25586,17 @@
       <c r="U62" s="18">
         <v>1.1879999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W62" s="20">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="X62" s="20">
+        <v>41</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -20650,8 +25647,17 @@
       <c r="U63" s="18">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W63" s="20">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="X63" s="20">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -20702,8 +25708,17 @@
       <c r="U64" s="18">
         <v>0.96599999999999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W64" s="20">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="X64" s="20">
+        <v>33.5</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -20754,8 +25769,17 @@
       <c r="U65" s="18">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W65" s="20">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="X65" s="20">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -20806,8 +25830,17 @@
       <c r="U66" s="18">
         <v>1.194</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W66" s="20">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X66" s="20">
+        <v>47.5</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -20858,8 +25891,17 @@
       <c r="U67" s="18">
         <v>1.0589999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W67" s="20">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="X67" s="20">
+        <v>38.9</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -20910,8 +25952,17 @@
       <c r="U68" s="18">
         <v>0.98599999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W68" s="20">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="X68" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -20962,8 +26013,17 @@
       <c r="U69" s="18">
         <v>1.196</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W69" s="20">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="X69" s="20">
+        <v>20</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21014,8 +26074,17 @@
       <c r="U70" s="18">
         <v>1.117</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W70" s="20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="X70" s="20">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -21066,8 +26135,17 @@
       <c r="U71" s="18">
         <v>1.222</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W71" s="20">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="X71" s="20">
+        <v>20.6</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -21118,8 +26196,17 @@
       <c r="U72" s="18">
         <v>1.0469999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W72" s="20">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="X72" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -21170,8 +26257,17 @@
       <c r="U73" s="18">
         <v>1.171</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W73" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X73" s="20">
+        <v>21.9</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -21222,8 +26318,17 @@
       <c r="U74" s="18">
         <v>1.2330000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W74" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="X74" s="20">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -21274,8 +26379,17 @@
       <c r="U75" s="18">
         <v>1.0669999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W75" s="20">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X75" s="20">
+        <v>20</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -21326,8 +26440,17 @@
       <c r="U76" s="18">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W76" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="X76" s="20">
+        <v>23.2</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -21378,8 +26501,17 @@
       <c r="U77" s="18">
         <v>1.1779999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W77" s="20">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="X77" s="20">
+        <v>20.7</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -21430,8 +26562,17 @@
       <c r="U78" s="18">
         <v>1.3089999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W78" s="20">
+        <v>9.4E-2</v>
+      </c>
+      <c r="X78" s="20">
+        <v>22.4</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21482,8 +26623,17 @@
       <c r="U79" s="18">
         <v>0.98899999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W79" s="20">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="X79" s="20">
+        <v>21.5</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21534,8 +26684,17 @@
       <c r="U80" s="18">
         <v>1.208</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W80" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X80" s="20">
+        <v>20.7</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21586,8 +26745,17 @@
       <c r="U81" s="18">
         <v>1.282</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W81" s="20">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="X81" s="20">
+        <v>21.4</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -21638,8 +26806,17 @@
       <c r="U82" s="18">
         <v>1.004</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W82" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X82" s="20">
+        <v>21</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -21690,8 +26867,17 @@
       <c r="U83" s="18">
         <v>1.171</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W83" s="20">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="X83" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -21742,8 +26928,17 @@
       <c r="U84" s="18">
         <v>1.3759999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W84" s="20">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="X84" s="20">
+        <v>19.8</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -21794,8 +26989,17 @@
       <c r="U85" s="18">
         <v>1.4410000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W85" s="20">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="X85" s="20">
+        <v>22.3</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -21846,8 +27050,17 @@
       <c r="U86" s="18">
         <v>1.498</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W86" s="20">
+        <v>6.3E-2</v>
+      </c>
+      <c r="X86" s="20">
+        <v>20.6</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -21898,8 +27111,17 @@
       <c r="U87" s="18">
         <v>1.421</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W87" s="20">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="X87" s="20">
+        <v>22.1</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -21950,8 +27172,17 @@
       <c r="U88" s="18">
         <v>1.6459999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W88" s="20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="X88" s="20">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -22002,8 +27233,17 @@
       <c r="U89" s="18">
         <v>1.3620000000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W89" s="20">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X89" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -22054,8 +27294,17 @@
       <c r="U90" s="18">
         <v>1.3140000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W90" s="20">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="X90" s="20">
+        <v>18.8</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -22106,8 +27355,17 @@
       <c r="U91" s="18">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W91" s="20">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="X91" s="20">
+        <v>21.6</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -22158,8 +27416,17 @@
       <c r="U92" s="18">
         <v>1.581</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W92" s="20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="X92" s="20">
+        <v>21.6</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -22210,8 +27477,17 @@
       <c r="U93" s="18">
         <v>1.4530000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W93" s="20">
+        <v>5.5E-2</v>
+      </c>
+      <c r="X93" s="20">
+        <v>19.7</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -22262,8 +27538,17 @@
       <c r="U94" s="18">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W94" s="20">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="X94" s="20">
+        <v>46</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -22314,8 +27599,17 @@
       <c r="U95" s="18">
         <v>1.4319999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W95" s="20">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="X95" s="20">
+        <v>53.4</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -22366,8 +27660,17 @@
       <c r="U96" s="18">
         <v>1.7430000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W96" s="20">
+        <v>1.421</v>
+      </c>
+      <c r="X96" s="20">
+        <v>51.5</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -22418,8 +27721,17 @@
       <c r="U97" s="18">
         <v>1.802</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W97" s="20">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="X97" s="20">
+        <v>48.8</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -22464,8 +27776,17 @@
         <f t="shared" si="4"/>
         <v>-18.272327964860903</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W98" s="20">
+        <v>1.581</v>
+      </c>
+      <c r="X98" s="20">
+        <v>52.6</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -22510,8 +27831,17 @@
         <f t="shared" si="4"/>
         <v>-9.5190128431125611</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W99" s="20">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="X99" s="20">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -22556,8 +27886,17 @@
         <f t="shared" si="4"/>
         <v>-14.128682397772247</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W100" s="20">
+        <v>1.87</v>
+      </c>
+      <c r="X100" s="20">
+        <v>54.5</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -22602,8 +27941,17 @@
         <f t="shared" si="4"/>
         <v>-21.527981678313466</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W101" s="20">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="X101" s="20">
+        <v>54.8</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -22648,8 +27996,17 @@
         <f t="shared" si="4"/>
         <v>-11.172139768610496</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W102" s="20">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="X102" s="20">
+        <v>34.5</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -22694,8 +28051,17 @@
         <f t="shared" si="4"/>
         <v>-9.9717725675442157</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W103" s="20">
+        <v>1.018</v>
+      </c>
+      <c r="X103" s="20">
+        <v>46.8</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -22740,8 +28106,17 @@
         <f t="shared" si="4"/>
         <v>-11.037783375314865</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W104" s="20">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="X104" s="20">
+        <v>49.3</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -22786,8 +28161,17 @@
         <f t="shared" si="4"/>
         <v>-12.601626016260168</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W105" s="20">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="X105" s="20">
+        <v>42.9</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -22832,8 +28216,17 @@
         <f t="shared" si="4"/>
         <v>-10.829228796977253</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W106" s="20">
+        <v>1.208</v>
+      </c>
+      <c r="X106" s="20">
+        <v>49.6</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -22878,8 +28271,17 @@
         <f t="shared" si="4"/>
         <v>-11.942641078690162</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W107" s="20">
+        <v>1.282</v>
+      </c>
+      <c r="X107" s="20">
+        <v>49.6</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -22924,8 +28326,17 @@
         <f t="shared" si="4"/>
         <v>-9.5209742895805114</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W108" s="20">
+        <v>1.073</v>
+      </c>
+      <c r="X108" s="20">
+        <v>45.6</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -22970,8 +28381,17 @@
         <f t="shared" si="4"/>
         <v>-16.605902180642502</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W109" s="20">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="X109" s="20">
+        <v>43.2</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -23016,8 +28436,17 @@
         <f t="shared" ref="R110:R141" si="5">Q110/N110*100</f>
         <v>-20.697896749521991</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W110" s="20">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="X110" s="20">
+        <v>42.3</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -23062,8 +28491,17 @@
         <f t="shared" si="5"/>
         <v>-19.108919930612611</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" ht="15.75" customHeight="1">
+      <c r="W111" s="20">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="X111" s="20">
+        <v>51.2</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -23108,8 +28546,17 @@
         <f t="shared" si="5"/>
         <v>-16.817050404480412</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W112" s="20">
+        <v>1.222</v>
+      </c>
+      <c r="X112" s="20">
+        <v>48.7</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -23154,8 +28601,17 @@
         <f t="shared" si="5"/>
         <v>-14.021757900189952</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W113" s="20">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="X113" s="20">
+        <v>46.8</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -23200,8 +28656,17 @@
         <f t="shared" si="5"/>
         <v>-6.1447114056890344</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W114" s="20">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="X114" s="20">
+        <v>42.1</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -23246,8 +28711,17 @@
         <f t="shared" si="5"/>
         <v>-5.5287596285364611</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W115" s="20">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="X115" s="20">
+        <v>41.9</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -23292,8 +28766,17 @@
         <f t="shared" si="5"/>
         <v>-9.3457943925233575</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W116" s="20">
+        <v>1.498</v>
+      </c>
+      <c r="X116" s="20">
+        <v>51.4</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -23338,8 +28821,17 @@
         <f t="shared" si="5"/>
         <v>-10.47804510333564</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W117" s="20">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="X117" s="20">
+        <v>49.2</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -23384,8 +28876,17 @@
         <f t="shared" si="5"/>
         <v>-30.611219297694582</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W118" s="20">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="X118" s="20">
+        <v>51.8</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -23430,8 +28931,17 @@
         <f t="shared" si="5"/>
         <v>-19.745652488077457</v>
       </c>
-    </row>
-    <row r="120" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W119" s="20">
+        <v>1.194</v>
+      </c>
+      <c r="X119" s="20">
+        <v>47.7</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -23476,8 +28986,17 @@
         <f t="shared" si="5"/>
         <v>3.8709130950364092</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W120" s="20">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="X120" s="20">
+        <v>31</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -23522,8 +29041,17 @@
         <f t="shared" si="5"/>
         <v>7.1674114816088128</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W121" s="20">
+        <v>1.802</v>
+      </c>
+      <c r="X121" s="20">
+        <v>55.2</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -23568,8 +29096,17 @@
         <f t="shared" si="5"/>
         <v>-14.981238273921205</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W122" s="20">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="X122" s="20">
+        <v>41.5</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -23614,8 +29151,17 @@
         <f t="shared" si="5"/>
         <v>-15.095338983050844</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W123" s="20">
+        <v>0.89</v>
+      </c>
+      <c r="X123" s="20">
+        <v>44.6</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -23660,8 +29206,17 @@
         <f t="shared" si="5"/>
         <v>-10.003108969376655</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W124" s="20">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="X124" s="20">
+        <v>42.8</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -23706,8 +29261,17 @@
         <f t="shared" si="5"/>
         <v>-24.201420770308804</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" ht="15.75" customHeight="1">
+      <c r="W125" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="X125" s="20">
+        <v>42.9</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -23753,7 +29317,7 @@
         <v>-20.255863539445638</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="15.75" customHeight="1">
+    <row r="127" spans="1:25" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -23799,7 +29363,7 @@
         <v>-11.399703162461467</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="15.75" customHeight="1">
+    <row r="128" spans="1:25" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -24489,8 +30053,8 @@
   </sheetPr>
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -24499,18 +30063,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="F1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
       <c r="L1" t="s">
         <v>11</v>
       </c>
